--- a/exports/Eliquis_Launch_Forecast_v2.xlsx
+++ b/exports/Eliquis_Launch_Forecast_v2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="403">
   <si>
     <t>Eliquis (Apixaban) - Launch Forecast Modell</t>
   </si>
@@ -229,12 +229,6 @@
   </si>
   <si>
     <t>Max. Anteil der Rx, die substituiert werden</t>
-  </si>
-  <si>
-    <t>Aut-idem Exclusion Rate (Arzt)</t>
-  </si>
-  <si>
-    <t>Anteil der Aerzte, die aut-idem ausschliessen</t>
   </si>
   <si>
     <t>Mein Anteil an Aut-idem-Substitutionen</t>
@@ -1879,40 +1873,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
                 <c:pt idx="0">
-                  <c:v>160279086</c:v>
+                  <c:v>161757268.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>161965797</c:v>
+                  <c:v>160473981</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>164891784</c:v>
+                  <c:v>162812538</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>163993894.5</c:v>
+                  <c:v>163304167.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>160984093.5</c:v>
+                  <c:v>160220343</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>162696882</c:v>
+                  <c:v>161241666</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>162974218.5</c:v>
+                  <c:v>163175610</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>163463652</c:v>
+                  <c:v>162929566.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>165428340</c:v>
+                  <c:v>163551034.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>164571351</c:v>
+                  <c:v>162844929</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>165148807.5</c:v>
+                  <c:v>165147160.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>164106165</c:v>
+                  <c:v>165303168</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>164663857.5</c:v>
@@ -2434,40 +2428,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
                 <c:pt idx="0">
-                  <c:v>0.4171</c:v>
+                  <c:v>0.4209</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4208</c:v>
+                  <c:v>0.4169</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4276</c:v>
+                  <c:v>0.4223</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.4246</c:v>
+                  <c:v>0.4228</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.4141</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.4161</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.4198</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.4204</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4191</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.4199</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.4204</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.4248</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.4219</c:v>
+                  <c:v>0.4174</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.4226</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.4193</c:v>
+                  <c:v>0.4223</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.42</c:v>
@@ -3970,184 +3964,184 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>9959</c:v>
+                  <c:v>9129</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13666</c:v>
+                  <c:v>12527</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18625</c:v>
+                  <c:v>17073</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25157</c:v>
+                  <c:v>23061</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33585</c:v>
+                  <c:v>30786</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44174</c:v>
+                  <c:v>40492</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>57044</c:v>
+                  <c:v>52291</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>72076</c:v>
+                  <c:v>66070</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>88835</c:v>
+                  <c:v>81432</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>106585</c:v>
+                  <c:v>97703</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>124394</c:v>
+                  <c:v>114027</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>141324</c:v>
+                  <c:v>129547</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>156621</c:v>
+                  <c:v>143569</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>169829</c:v>
+                  <c:v>155676</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>180803</c:v>
+                  <c:v>165736</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>189645</c:v>
+                  <c:v>173842</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>196605</c:v>
+                  <c:v>180221</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>201994</c:v>
+                  <c:v>185161</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>206127</c:v>
+                  <c:v>188950</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>209284</c:v>
+                  <c:v>191844</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>211700</c:v>
+                  <c:v>194058</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>213562</c:v>
+                  <c:v>195765</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>215014</c:v>
+                  <c:v>197096</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>216166</c:v>
+                  <c:v>198152</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>217100</c:v>
+                  <c:v>199008</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>217875</c:v>
+                  <c:v>199719</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>218536</c:v>
+                  <c:v>200324</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>219114</c:v>
+                  <c:v>200854</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>219633</c:v>
+                  <c:v>201330</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>220110</c:v>
+                  <c:v>201767</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>220556</c:v>
+                  <c:v>202176</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>220981</c:v>
+                  <c:v>202566</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>221390</c:v>
+                  <c:v>202941</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>221788</c:v>
+                  <c:v>203306</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>222179</c:v>
+                  <c:v>203664</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>222565</c:v>
+                  <c:v>204018</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>222947</c:v>
+                  <c:v>204368</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>223326</c:v>
+                  <c:v>204715</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>223704</c:v>
+                  <c:v>205062</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>224081</c:v>
+                  <c:v>205407</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>224457</c:v>
+                  <c:v>205752</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>224833</c:v>
+                  <c:v>206097</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>225209</c:v>
+                  <c:v>206442</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>225586</c:v>
+                  <c:v>206787</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>225962</c:v>
+                  <c:v>207132</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>226340</c:v>
+                  <c:v>207478</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>226717</c:v>
+                  <c:v>207824</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>227095</c:v>
+                  <c:v>208171</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>227474</c:v>
+                  <c:v>208518</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>227853</c:v>
+                  <c:v>208866</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>228233</c:v>
+                  <c:v>209214</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>228614</c:v>
+                  <c:v>209563</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>228995</c:v>
+                  <c:v>209912</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>229376</c:v>
+                  <c:v>210262</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>229759</c:v>
+                  <c:v>210612</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>230142</c:v>
+                  <c:v>210963</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>230525</c:v>
+                  <c:v>211315</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>230910</c:v>
+                  <c:v>211667</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>231294</c:v>
+                  <c:v>212020</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>231680</c:v>
+                  <c:v>212373</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4760,172 +4754,172 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3165</c:v>
+                  <c:v>2901</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8326</c:v>
+                  <c:v>7632</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16129</c:v>
+                  <c:v>14785</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27172</c:v>
+                  <c:v>24908</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41863</c:v>
+                  <c:v>38374</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>60273</c:v>
+                  <c:v>55251</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>70344</c:v>
+                  <c:v>64482</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>79918</c:v>
+                  <c:v>73258</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>88569</c:v>
+                  <c:v>81188</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>96038</c:v>
+                  <c:v>88034</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>102244</c:v>
+                  <c:v>93723</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>115233</c:v>
+                  <c:v>105630</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>119462</c:v>
+                  <c:v>109506</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>122736</c:v>
+                  <c:v>112508</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>125247</c:v>
+                  <c:v>114810</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>127166</c:v>
+                  <c:v>116569</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>128634</c:v>
+                  <c:v>117914</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>129765</c:v>
+                  <c:v>118951</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>130647</c:v>
+                  <c:v>119760</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>131347</c:v>
+                  <c:v>120402</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>131915</c:v>
+                  <c:v>120922</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>132386</c:v>
+                  <c:v>121354</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>132787</c:v>
+                  <c:v>121721</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>133139</c:v>
+                  <c:v>122043</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>133454</c:v>
+                  <c:v>122333</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>133744</c:v>
+                  <c:v>122598</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>134015</c:v>
+                  <c:v>122847</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>134273</c:v>
+                  <c:v>123084</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>134522</c:v>
+                  <c:v>123312</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>134763</c:v>
+                  <c:v>123533</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>135001</c:v>
+                  <c:v>123751</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>135236</c:v>
+                  <c:v>123966</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>135468</c:v>
+                  <c:v>124179</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>135698</c:v>
+                  <c:v>124389</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>135928</c:v>
+                  <c:v>124600</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>136157</c:v>
+                  <c:v>124810</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>136385</c:v>
+                  <c:v>125020</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>136614</c:v>
+                  <c:v>125229</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>136842</c:v>
+                  <c:v>125439</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>137071</c:v>
+                  <c:v>125648</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>137300</c:v>
+                  <c:v>125858</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>137529</c:v>
+                  <c:v>126068</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>137758</c:v>
+                  <c:v>126279</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>137988</c:v>
+                  <c:v>126489</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>138218</c:v>
+                  <c:v>126700</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>138449</c:v>
+                  <c:v>126912</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>138680</c:v>
+                  <c:v>127123</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>138911</c:v>
+                  <c:v>127335</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>139143</c:v>
+                  <c:v>127547</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>139374</c:v>
+                  <c:v>127760</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>139607</c:v>
+                  <c:v>127973</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>139840</c:v>
+                  <c:v>128186</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>140072</c:v>
+                  <c:v>128400</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>140306</c:v>
+                  <c:v>128614</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>140540</c:v>
+                  <c:v>128828</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>140774</c:v>
+                  <c:v>129043</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5232,184 +5226,184 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>501186.68</c:v>
+                  <c:v>459416.93</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>683990.13</c:v>
+                  <c:v>626982.61</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>927078</c:v>
+                  <c:v>849825.65</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1245309.24</c:v>
+                  <c:v>1141554.09</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1809092.25</c:v>
+                  <c:v>1658309.95</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2570006.25</c:v>
+                  <c:v>2355790.11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3561915.29</c:v>
+                  <c:v>3265125.53</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6944401.74</c:v>
+                  <c:v>6544104.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10049575.85</c:v>
+                  <c:v>9525354.779999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12804954.96</c:v>
+                  <c:v>12139586</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14609153.52</c:v>
+                  <c:v>13836977.7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15871988.67</c:v>
+                  <c:v>14999817.16</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17244527.55</c:v>
+                  <c:v>16283543.13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18120107.52</c:v>
+                  <c:v>17084123.75</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18821723.85</c:v>
+                  <c:v>17725306.43</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>19728707.99</c:v>
+                  <c:v>18554760.25</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>20134822.42</c:v>
+                  <c:v>18924947.2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>20419348.71</c:v>
+                  <c:v>19183784.04</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20607376.73</c:v>
+                  <c:v>19354142.95</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20720913.5</c:v>
+                  <c:v>19456178.45</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20778153.06</c:v>
+                  <c:v>19506542.79</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>20793444.36</c:v>
+                  <c:v>19518523.89</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>20777839.76</c:v>
+                  <c:v>19502181.53</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>20739627.17</c:v>
+                  <c:v>19465098.14</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>20684976.78</c:v>
+                  <c:v>19412886.14</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>20618262.3</c:v>
+                  <c:v>19349678.85</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>20542847.27</c:v>
+                  <c:v>19278389</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>20461070.97</c:v>
+                  <c:v>19201302.27</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>20374619.76</c:v>
+                  <c:v>19120009.82</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>20284758.07</c:v>
+                  <c:v>19035471.33</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>20192256.6</c:v>
+                  <c:v>18948581.28</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>20097867.4</c:v>
+                  <c:v>18859961.33</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>20001949.96</c:v>
+                  <c:v>18769885.44</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>19904772.48</c:v>
+                  <c:v>18678662.23</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>19806760.51</c:v>
+                  <c:v>18586633.63</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>19707962.2</c:v>
+                  <c:v>18493888.5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>19608424.56</c:v>
+                  <c:v>18400473.04</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>19508273.88</c:v>
+                  <c:v>18306432.36</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>19407633.12</c:v>
+                  <c:v>18212009.94</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>19306463.49</c:v>
+                  <c:v>18117046.48</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>19204805.99</c:v>
+                  <c:v>18021701.84</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>19102739.57</c:v>
+                  <c:v>17925897.03</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>19000224.61</c:v>
+                  <c:v>17829749.29</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>18897299.65</c:v>
+                  <c:v>17733102.87</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>18793963.85</c:v>
+                  <c:v>17636150.66</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>18690216.39</c:v>
+                  <c:v>17538776.27</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>18586018.75</c:v>
+                  <c:v>17441055.1</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>18481445.78</c:v>
+                  <c:v>17342910.64</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>18376495.83</c:v>
+                  <c:v>17244417.2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>18271130.38</c:v>
+                  <c:v>17145573.14</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>18165348.6</c:v>
+                  <c:v>17046267</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>18195653.4</c:v>
+                  <c:v>17074705.2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>18225994.8</c:v>
+                  <c:v>17103143.4</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>18256299.6</c:v>
+                  <c:v>17131654.8</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>18286787.4</c:v>
+                  <c:v>17160202.8</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>18317275.2</c:v>
+                  <c:v>17188787.4</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>18347763</c:v>
+                  <c:v>17217481.8</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>18378397.2</c:v>
+                  <c:v>17246176.2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>18408994.8</c:v>
+                  <c:v>17274907.2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>18439665.6</c:v>
+                  <c:v>17303674.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5631,184 +5625,184 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>-324109.99</c:v>
+                  <c:v>-355437.31</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-11117.39</c:v>
+                  <c:v>-85200.35000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>484191.11</c:v>
+                  <c:v>352168.89</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1218173.03</c:v>
+                  <c:v>1008334.46</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2374992.22</c:v>
+                  <c:v>2052066.92</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4102496.91</c:v>
+                  <c:v>3618909.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6573933.38</c:v>
+                  <c:v>5867753.65</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11582234.68</c:v>
+                  <c:v>10575832.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18919416.57</c:v>
+                  <c:v>17519848.33</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28323132.79</c:v>
+                  <c:v>26424537.83</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>39079997.93</c:v>
+                  <c:v>36602271.1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>50783989.43</c:v>
+                  <c:v>47652133.97</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>63517385.1</c:v>
+                  <c:v>59664791.32</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>76907465.73999999</c:v>
+                  <c:v>72277884.13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>90823758.62</c:v>
+                  <c:v>85371863.95999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>105420289.62</c:v>
+                  <c:v>99087934.15000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>120321406.43</c:v>
+                  <c:v>113081644.54</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>135435917.97</c:v>
+                  <c:v>127269482.57</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>150691450.51</c:v>
+                  <c:v>141585089.79</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>166032135.63</c:v>
+                  <c:v>155977223.62</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>181415750.43</c:v>
+                  <c:v>170407130.72</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>196810833.7</c:v>
+                  <c:v>184846023.63</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>212194213.52</c:v>
+                  <c:v>199272659.78</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>227548933.9</c:v>
+                  <c:v>213671483.39</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>242862666.48</c:v>
+                  <c:v>228031147.99</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>258126363.21</c:v>
+                  <c:v>242343407.13</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>273333498.66</c:v>
+                  <c:v>256602198.88</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>288479301.89</c:v>
+                  <c:v>270803175.58</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>303560266.71</c:v>
+                  <c:v>284943182.95</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>318573835.26</c:v>
+                  <c:v>299019786.44</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>333518027.71</c:v>
+                  <c:v>313031222.4</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>348391428.25</c:v>
+                  <c:v>326976193.4</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>363192890.72</c:v>
+                  <c:v>340853607.48</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>377921470.08</c:v>
+                  <c:v>354662604.16</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>392576540.46</c:v>
+                  <c:v>368402579.38</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>407157512.11</c:v>
+                  <c:v>382072995.75</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>421663830.53</c:v>
+                  <c:v>395673350.53</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>436095035.94</c:v>
+                  <c:v>409203174.8</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>450450760.78</c:v>
+                  <c:v>422662182.26</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>464730608.4</c:v>
+                  <c:v>436049967.12</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>478934212.89</c:v>
+                  <c:v>449366243.5</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>493061267.56</c:v>
+                  <c:v>462610666.27</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>507111436.02</c:v>
+                  <c:v>475782978.24</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>521084410.76</c:v>
+                  <c:v>488882805.4</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>534979883.64</c:v>
+                  <c:v>501909918.39</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>548797545.9400001</c:v>
+                  <c:v>514864000.6</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>562537060</c:v>
+                  <c:v>527744791.92</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>576198144.34</c:v>
+                  <c:v>540551974.9</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>589780516.21</c:v>
+                  <c:v>553285287.8</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>603283863.99</c:v>
+                  <c:v>565944467.66</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>616707875.4400001</c:v>
+                  <c:v>578529167.91</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>630154615.49</c:v>
+                  <c:v>591135196.8099999</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>643624111.59</c:v>
+                  <c:v>603762554.36</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>657116336.29</c:v>
+                  <c:v>616411295.46</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>670631426.84</c:v>
+                  <c:v>629081447.5599999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>684169383.24</c:v>
+                  <c:v>641773038.11</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>697730205.49</c:v>
+                  <c:v>654486149.46</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>711314003.39</c:v>
+                  <c:v>667220781.61</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>724920749.49</c:v>
+                  <c:v>679976962.01</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>738550498.6900001</c:v>
+                  <c:v>692754718.11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6864,7 +6858,7 @@
   <sheetPr>
     <tabColor rgb="FFE0B800"/>
   </sheetPr>
-  <dimension ref="B2:F93"/>
+  <dimension ref="B2:F92"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7235,85 +7229,85 @@
         <v>70</v>
       </c>
       <c r="C41" s="8">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C42" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="D42" s="6" t="s">
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" s="12" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="43" spans="2:4">
-      <c r="B43" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
     </row>
     <row r="44" spans="2:4">
       <c r="B44" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
     </row>
     <row r="46" spans="2:4">
       <c r="B46" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
     </row>
     <row r="47" spans="2:4">
       <c r="B47" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
     </row>
     <row r="48" spans="2:4">
       <c r="B48" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
     </row>
-    <row r="49" spans="2:6">
-      <c r="B49" s="12" t="s">
+    <row r="50" spans="2:6">
+      <c r="B50" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="B51" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-    </row>
-    <row r="51" spans="2:6">
-      <c r="B51" s="3" t="s">
+      <c r="C51" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C52" s="11" t="s">
-        <v>62</v>
+      <c r="C52" s="7">
+        <v>3</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>83</v>
@@ -7324,46 +7318,52 @@
         <v>84</v>
       </c>
       <c r="C53" s="7">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="2:6">
-      <c r="B54" s="4" t="s">
+    <row r="55" spans="2:6">
+      <c r="B55" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C54" s="7">
-        <v>24</v>
-      </c>
-      <c r="D54" s="6" t="s">
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+    </row>
+    <row r="56" spans="2:6" ht="30" customHeight="1">
+      <c r="B56" s="13" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="56" spans="2:6">
-      <c r="B56" s="10" t="s">
+      <c r="C56" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-    </row>
-    <row r="57" spans="2:6" ht="30" customHeight="1">
-      <c r="B57" s="13" t="s">
+      <c r="D56" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="E56" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="F56" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="E57" s="13" t="s">
+    </row>
+    <row r="57" spans="2:6">
+      <c r="B57" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F57" s="13" t="s">
+      <c r="C57" s="7">
+        <v>11.5</v>
+      </c>
+      <c r="D57" s="8">
+        <v>0.158</v>
+      </c>
+      <c r="E57" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F57" s="11" t="s">
         <v>93</v>
       </c>
     </row>
@@ -7372,50 +7372,50 @@
         <v>94</v>
       </c>
       <c r="C58" s="7">
-        <v>11.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D58" s="8">
-        <v>0.158</v>
+        <v>0.119</v>
       </c>
       <c r="E58" s="8">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="2:6">
       <c r="B59" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C59" s="7">
-        <v>8.699999999999999</v>
+        <v>5.5</v>
       </c>
       <c r="D59" s="8">
-        <v>0.119</v>
+        <v>0.075</v>
       </c>
       <c r="E59" s="8">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C60" s="7">
+        <v>4.6</v>
+      </c>
+      <c r="D60" s="8">
+        <v>0.063</v>
+      </c>
+      <c r="E60" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="F60" s="11" t="s">
         <v>97</v>
-      </c>
-      <c r="C60" s="7">
-        <v>5.5</v>
-      </c>
-      <c r="D60" s="8">
-        <v>0.075</v>
-      </c>
-      <c r="E60" s="8">
-        <v>0.45</v>
-      </c>
-      <c r="F60" s="11" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="61" spans="2:6">
@@ -7423,67 +7423,67 @@
         <v>98</v>
       </c>
       <c r="C61" s="7">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="D61" s="8">
-        <v>0.063</v>
+        <v>0.062</v>
       </c>
       <c r="E61" s="8">
         <v>0.3</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62" spans="2:6">
       <c r="B62" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C62" s="7">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="D62" s="8">
-        <v>0.062</v>
+        <v>0.041</v>
       </c>
       <c r="E62" s="8">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63" spans="2:6">
       <c r="B63" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C63" s="7">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="D63" s="8">
-        <v>0.041</v>
+        <v>0.04</v>
       </c>
       <c r="E63" s="8">
         <v>0.35</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="64" spans="2:6">
       <c r="B64" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C64" s="7">
+        <v>3</v>
+      </c>
+      <c r="D64" s="8">
+        <v>0.041</v>
+      </c>
+      <c r="E64" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="F64" s="11" t="s">
         <v>102</v>
-      </c>
-      <c r="C64" s="7">
-        <v>2.9</v>
-      </c>
-      <c r="D64" s="8">
-        <v>0.04</v>
-      </c>
-      <c r="E64" s="8">
-        <v>0.35</v>
-      </c>
-      <c r="F64" s="11" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="65" spans="2:6">
@@ -7491,64 +7491,56 @@
         <v>103</v>
       </c>
       <c r="C65" s="7">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="D65" s="8">
-        <v>0.041</v>
+        <v>0.021</v>
       </c>
       <c r="E65" s="8">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="2:6">
       <c r="B66" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C66" s="7">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="D66" s="8">
-        <v>0.021</v>
+        <v>0.012</v>
       </c>
       <c r="E66" s="8">
         <v>0.2</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="2:6">
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+    </row>
+    <row r="68" spans="2:6">
+      <c r="B68" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C67" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="D67" s="8">
-        <v>0.012</v>
-      </c>
-      <c r="E67" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="F67" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6">
-      <c r="B68" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
     </row>
     <row r="69" spans="2:6">
       <c r="B69" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
@@ -7557,7 +7549,7 @@
     </row>
     <row r="70" spans="2:6">
       <c r="B70" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
@@ -7566,7 +7558,7 @@
     </row>
     <row r="71" spans="2:6">
       <c r="B71" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
@@ -7575,7 +7567,7 @@
     </row>
     <row r="72" spans="2:6">
       <c r="B72" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
@@ -7584,35 +7576,37 @@
     </row>
     <row r="73" spans="2:6">
       <c r="B73" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
       <c r="E73" s="12"/>
       <c r="F73" s="12"/>
     </row>
-    <row r="74" spans="2:6">
-      <c r="B74" s="12" t="s">
+    <row r="75" spans="2:6">
+      <c r="B75" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+    </row>
+    <row r="76" spans="2:6">
+      <c r="B76" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
-    </row>
-    <row r="76" spans="2:6">
-      <c r="B76" s="3" t="s">
+      <c r="C76" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="D76" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
     </row>
     <row r="77" spans="2:6">
       <c r="B77" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C77" s="8">
-        <v>0.25</v>
+      <c r="C77" s="7">
+        <v>150000</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>116</v>
@@ -7623,7 +7617,7 @@
         <v>117</v>
       </c>
       <c r="C78" s="7">
-        <v>150000</v>
+        <v>500000</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>118</v>
@@ -7634,182 +7628,171 @@
         <v>119</v>
       </c>
       <c r="C79" s="7">
-        <v>500000</v>
+        <v>50000</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="80" spans="2:6">
-      <c r="B80" s="4" t="s">
+    <row r="81" spans="2:5">
+      <c r="B81" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C80" s="7">
-        <v>50000</v>
-      </c>
-      <c r="D80" s="6" t="s">
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+    </row>
+    <row r="82" spans="2:5">
+      <c r="B82" s="13" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="82" spans="2:5">
-      <c r="B82" s="3" t="s">
+      <c r="C82" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
+      <c r="D82" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="83" spans="2:5">
-      <c r="B83" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C83" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="D83" s="13" t="s">
+      <c r="B83" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E83" s="13" t="s">
-        <v>127</v>
+      <c r="C83" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="D83" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="E83" s="8">
+        <v>0.1</v>
       </c>
     </row>
     <row r="84" spans="2:5">
       <c r="B84" s="4" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="C84" s="8">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="D84" s="8">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="E84" s="8">
-        <v>0.1</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="85" spans="2:5">
       <c r="B85" s="4" t="s">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="C85" s="8">
-        <v>0.7</v>
+        <v>0.18</v>
       </c>
       <c r="D85" s="8">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="E85" s="8">
-        <v>1.3</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="86" spans="2:5">
       <c r="B86" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C86" s="8">
-        <v>0.18</v>
+        <v>0.6</v>
       </c>
       <c r="D86" s="8">
-        <v>0.12</v>
+        <v>0.75</v>
       </c>
       <c r="E86" s="8">
-        <v>0.08</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="87" spans="2:5">
       <c r="B87" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C87" s="8">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="D87" s="8">
-        <v>0.75</v>
+        <v>0.1</v>
       </c>
       <c r="E87" s="8">
-        <v>0.85</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="88" spans="2:5">
       <c r="B88" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C88" s="8">
-        <v>0.06</v>
+        <v>0.4</v>
       </c>
       <c r="D88" s="8">
-        <v>0.1</v>
+        <v>0.55</v>
       </c>
       <c r="E88" s="8">
-        <v>0.15</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="89" spans="2:5">
       <c r="B89" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C89" s="8">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="D89" s="8">
-        <v>0.55</v>
+        <v>0.45</v>
       </c>
       <c r="E89" s="8">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="90" spans="2:5">
       <c r="B90" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C90" s="8">
-        <v>0.35</v>
+        <v>0.01</v>
       </c>
       <c r="D90" s="8">
-        <v>0.45</v>
+        <v>0.02</v>
       </c>
       <c r="E90" s="8">
-        <v>0.5</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="91" spans="2:5">
       <c r="B91" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C91" s="8">
-        <v>0.01</v>
+        <v>0.2</v>
       </c>
       <c r="D91" s="8">
-        <v>0.02</v>
+        <v>0.4</v>
       </c>
       <c r="E91" s="8">
-        <v>0.03</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="92" spans="2:5">
       <c r="B92" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C92" s="8">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="D92" s="8">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="E92" s="8">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="93" spans="2:5">
-      <c r="B93" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C93" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="D93" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="E93" s="8">
         <v>0.4</v>
       </c>
     </row>
@@ -7823,24 +7806,24 @@
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B42:D42"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="B46:D46"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B67:F67"/>
     <mergeCell ref="B68:F68"/>
     <mergeCell ref="B69:F69"/>
     <mergeCell ref="B70:F70"/>
     <mergeCell ref="B71:F71"/>
     <mergeCell ref="B72:F72"/>
     <mergeCell ref="B73:F73"/>
-    <mergeCell ref="B74:F74"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B81:E81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7864,7 +7847,7 @@
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -7874,30 +7857,30 @@
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="E4" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="F4" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="G4" s="13" t="s">
         <v>141</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D5" s="14">
         <v>0.42</v>
@@ -7914,10 +7897,10 @@
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D6" s="14">
         <v>0.35</v>
@@ -7929,15 +7912,15 @@
         <v>129000000</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D7" s="14">
         <v>0.15</v>
@@ -7949,15 +7932,15 @@
         <v>47000000</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D8" s="14">
         <v>0.08</v>
@@ -7969,12 +7952,12 @@
         <v>21500000</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D9" s="14">
         <v>1</v>
@@ -7985,7 +7968,7 @@
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -7995,10 +7978,10 @@
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -8007,10 +7990,10 @@
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
@@ -8019,10 +8002,10 @@
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -8031,10 +8014,10 @@
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
@@ -8043,10 +8026,10 @@
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
@@ -8055,10 +8038,10 @@
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
@@ -8098,7 +8081,7 @@
   <sheetData>
     <row r="2" spans="2:12">
       <c r="B2" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -8112,25 +8095,25 @@
     </row>
     <row r="4" spans="2:12">
       <c r="B4" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I4" s="17"/>
     </row>
     <row r="5" spans="2:12">
       <c r="B5" s="18">
-        <v>1960504071</v>
+        <v>1952761432.5</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18">
@@ -8142,48 +8125,48 @@
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="19">
-        <v>-0.4324569906644178</v>
+        <v>-0.4302067002390985</v>
       </c>
       <c r="I5" s="19"/>
     </row>
     <row r="8" spans="2:12" ht="35" customHeight="1">
       <c r="B8" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="E8" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="F8" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="G8" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="H8" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="I8" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="J8" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="K8" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="L8" s="20" t="s">
         <v>182</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="L8" s="20" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C9" s="21">
         <v>-12</v>
@@ -8192,10 +8175,10 @@
         <v>4200000</v>
       </c>
       <c r="E9" s="21">
-        <v>1751684</v>
+        <v>1767839</v>
       </c>
       <c r="F9" s="14">
-        <v>0.4171</v>
+        <v>0.4209</v>
       </c>
       <c r="G9" s="14">
         <v>0</v>
@@ -8204,7 +8187,7 @@
         <v>91.5</v>
       </c>
       <c r="I9" s="16">
-        <v>160279086</v>
+        <v>161757268.5</v>
       </c>
       <c r="J9" s="21">
         <v>0</v>
@@ -8218,7 +8201,7 @@
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="22" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C10" s="23">
         <v>-11</v>
@@ -8227,10 +8210,10 @@
         <v>4207000</v>
       </c>
       <c r="E10" s="23">
-        <v>1770118</v>
+        <v>1753814</v>
       </c>
       <c r="F10" s="24">
-        <v>0.4208</v>
+        <v>0.4169</v>
       </c>
       <c r="G10" s="24">
         <v>0</v>
@@ -8239,7 +8222,7 @@
         <v>91.5</v>
       </c>
       <c r="I10" s="25">
-        <v>161965797</v>
+        <v>160473981</v>
       </c>
       <c r="J10" s="23">
         <v>0</v>
@@ -8253,7 +8236,7 @@
     </row>
     <row r="11" spans="2:12">
       <c r="B11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C11" s="21">
         <v>-10</v>
@@ -8262,10 +8245,10 @@
         <v>4214011</v>
       </c>
       <c r="E11" s="21">
-        <v>1802096</v>
+        <v>1779372</v>
       </c>
       <c r="F11" s="14">
-        <v>0.4276</v>
+        <v>0.4223</v>
       </c>
       <c r="G11" s="14">
         <v>0</v>
@@ -8274,7 +8257,7 @@
         <v>91.5</v>
       </c>
       <c r="I11" s="16">
-        <v>164891784</v>
+        <v>162812538</v>
       </c>
       <c r="J11" s="21">
         <v>0</v>
@@ -8288,7 +8271,7 @@
     </row>
     <row r="12" spans="2:12">
       <c r="B12" s="22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C12" s="23">
         <v>-9</v>
@@ -8297,10 +8280,10 @@
         <v>4221035</v>
       </c>
       <c r="E12" s="23">
-        <v>1792283</v>
+        <v>1784745</v>
       </c>
       <c r="F12" s="24">
-        <v>0.4246</v>
+        <v>0.4228</v>
       </c>
       <c r="G12" s="24">
         <v>0</v>
@@ -8309,7 +8292,7 @@
         <v>91.5</v>
       </c>
       <c r="I12" s="25">
-        <v>163993894.5</v>
+        <v>163304167.5</v>
       </c>
       <c r="J12" s="23">
         <v>0</v>
@@ -8323,7 +8306,7 @@
     </row>
     <row r="13" spans="2:12">
       <c r="B13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C13" s="21">
         <v>-8</v>
@@ -8332,10 +8315,10 @@
         <v>4228070</v>
       </c>
       <c r="E13" s="21">
-        <v>1759389</v>
+        <v>1751042</v>
       </c>
       <c r="F13" s="14">
-        <v>0.4161</v>
+        <v>0.4141</v>
       </c>
       <c r="G13" s="14">
         <v>0</v>
@@ -8344,7 +8327,7 @@
         <v>91.5</v>
       </c>
       <c r="I13" s="16">
-        <v>160984093.5</v>
+        <v>160220343</v>
       </c>
       <c r="J13" s="21">
         <v>0</v>
@@ -8358,7 +8341,7 @@
     </row>
     <row r="14" spans="2:12">
       <c r="B14" s="22" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C14" s="23">
         <v>-7</v>
@@ -8367,10 +8350,10 @@
         <v>4235116</v>
       </c>
       <c r="E14" s="23">
-        <v>1778108</v>
+        <v>1762204</v>
       </c>
       <c r="F14" s="24">
-        <v>0.4198</v>
+        <v>0.4161</v>
       </c>
       <c r="G14" s="24">
         <v>0</v>
@@ -8379,7 +8362,7 @@
         <v>91.5</v>
       </c>
       <c r="I14" s="25">
-        <v>162696882</v>
+        <v>161241666</v>
       </c>
       <c r="J14" s="23">
         <v>0</v>
@@ -8393,7 +8376,7 @@
     </row>
     <row r="15" spans="2:12">
       <c r="B15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C15" s="21">
         <v>-6</v>
@@ -8402,10 +8385,10 @@
         <v>4242175</v>
       </c>
       <c r="E15" s="21">
-        <v>1781139</v>
+        <v>1783340</v>
       </c>
       <c r="F15" s="14">
-        <v>0.4199</v>
+        <v>0.4204</v>
       </c>
       <c r="G15" s="14">
         <v>0</v>
@@ -8414,7 +8397,7 @@
         <v>91.5</v>
       </c>
       <c r="I15" s="16">
-        <v>162974218.5</v>
+        <v>163175610</v>
       </c>
       <c r="J15" s="21">
         <v>0</v>
@@ -8428,7 +8411,7 @@
     </row>
     <row r="16" spans="2:12">
       <c r="B16" s="22" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C16" s="23">
         <v>-5</v>
@@ -8437,10 +8420,10 @@
         <v>4249245</v>
       </c>
       <c r="E16" s="23">
-        <v>1786488</v>
+        <v>1780651</v>
       </c>
       <c r="F16" s="24">
-        <v>0.4204</v>
+        <v>0.4191</v>
       </c>
       <c r="G16" s="24">
         <v>0</v>
@@ -8449,7 +8432,7 @@
         <v>91.5</v>
       </c>
       <c r="I16" s="25">
-        <v>163463652</v>
+        <v>162929566.5</v>
       </c>
       <c r="J16" s="23">
         <v>0</v>
@@ -8463,7 +8446,7 @@
     </row>
     <row r="17" spans="2:12">
       <c r="B17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C17" s="21">
         <v>-4</v>
@@ -8472,10 +8455,10 @@
         <v>4256327</v>
       </c>
       <c r="E17" s="21">
-        <v>1807960</v>
+        <v>1787443</v>
       </c>
       <c r="F17" s="14">
-        <v>0.4248</v>
+        <v>0.4199</v>
       </c>
       <c r="G17" s="14">
         <v>0</v>
@@ -8484,7 +8467,7 @@
         <v>91.5</v>
       </c>
       <c r="I17" s="16">
-        <v>165428340</v>
+        <v>163551034.5</v>
       </c>
       <c r="J17" s="21">
         <v>0</v>
@@ -8498,7 +8481,7 @@
     </row>
     <row r="18" spans="2:12">
       <c r="B18" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C18" s="23">
         <v>-3</v>
@@ -8507,10 +8490,10 @@
         <v>4263421</v>
       </c>
       <c r="E18" s="23">
-        <v>1798594</v>
+        <v>1779726</v>
       </c>
       <c r="F18" s="24">
-        <v>0.4219</v>
+        <v>0.4174</v>
       </c>
       <c r="G18" s="24">
         <v>0</v>
@@ -8519,7 +8502,7 @@
         <v>91.5</v>
       </c>
       <c r="I18" s="25">
-        <v>164571351</v>
+        <v>162844929</v>
       </c>
       <c r="J18" s="23">
         <v>0</v>
@@ -8533,7 +8516,7 @@
     </row>
     <row r="19" spans="2:12">
       <c r="B19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C19" s="21">
         <v>-2</v>
@@ -8542,7 +8525,7 @@
         <v>4270527</v>
       </c>
       <c r="E19" s="21">
-        <v>1804905</v>
+        <v>1804887</v>
       </c>
       <c r="F19" s="14">
         <v>0.4226</v>
@@ -8554,7 +8537,7 @@
         <v>91.5</v>
       </c>
       <c r="I19" s="16">
-        <v>165148807.5</v>
+        <v>165147160.5</v>
       </c>
       <c r="J19" s="21">
         <v>0</v>
@@ -8568,7 +8551,7 @@
     </row>
     <row r="20" spans="2:12">
       <c r="B20" s="22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C20" s="23">
         <v>-1</v>
@@ -8577,10 +8560,10 @@
         <v>4277644</v>
       </c>
       <c r="E20" s="23">
-        <v>1793510</v>
+        <v>1806592</v>
       </c>
       <c r="F20" s="24">
-        <v>0.4193</v>
+        <v>0.4223</v>
       </c>
       <c r="G20" s="24">
         <v>0</v>
@@ -8589,7 +8572,7 @@
         <v>91.5</v>
       </c>
       <c r="I20" s="25">
-        <v>164106165</v>
+        <v>165303168</v>
       </c>
       <c r="J20" s="23">
         <v>0</v>
@@ -8603,7 +8586,7 @@
     </row>
     <row r="21" spans="2:12">
       <c r="B21" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C21" s="21">
         <v>0</v>
@@ -8638,7 +8621,7 @@
     </row>
     <row r="22" spans="2:12">
       <c r="B22" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C22" s="23">
         <v>1</v>
@@ -8673,7 +8656,7 @@
     </row>
     <row r="23" spans="2:12">
       <c r="B23" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C23" s="21">
         <v>2</v>
@@ -8708,7 +8691,7 @@
     </row>
     <row r="24" spans="2:12">
       <c r="B24" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C24" s="23">
         <v>3</v>
@@ -8743,7 +8726,7 @@
     </row>
     <row r="25" spans="2:12">
       <c r="B25" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C25" s="21">
         <v>4</v>
@@ -8778,7 +8761,7 @@
     </row>
     <row r="26" spans="2:12">
       <c r="B26" s="22" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C26" s="23">
         <v>5</v>
@@ -8813,7 +8796,7 @@
     </row>
     <row r="27" spans="2:12">
       <c r="B27" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C27" s="21">
         <v>6</v>
@@ -8848,7 +8831,7 @@
     </row>
     <row r="28" spans="2:12">
       <c r="B28" s="22" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C28" s="23">
         <v>7</v>
@@ -8883,7 +8866,7 @@
     </row>
     <row r="29" spans="2:12">
       <c r="B29" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C29" s="21">
         <v>8</v>
@@ -8918,7 +8901,7 @@
     </row>
     <row r="30" spans="2:12">
       <c r="B30" s="22" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C30" s="23">
         <v>9</v>
@@ -8953,7 +8936,7 @@
     </row>
     <row r="31" spans="2:12">
       <c r="B31" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C31" s="21">
         <v>10</v>
@@ -8988,7 +8971,7 @@
     </row>
     <row r="32" spans="2:12">
       <c r="B32" s="22" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C32" s="23">
         <v>11</v>
@@ -9023,7 +9006,7 @@
     </row>
     <row r="33" spans="2:12">
       <c r="B33" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C33" s="21">
         <v>12</v>
@@ -9058,7 +9041,7 @@
     </row>
     <row r="34" spans="2:12">
       <c r="B34" s="22" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C34" s="23">
         <v>13</v>
@@ -9093,7 +9076,7 @@
     </row>
     <row r="35" spans="2:12">
       <c r="B35" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C35" s="21">
         <v>14</v>
@@ -9128,7 +9111,7 @@
     </row>
     <row r="36" spans="2:12">
       <c r="B36" s="22" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C36" s="23">
         <v>15</v>
@@ -9163,7 +9146,7 @@
     </row>
     <row r="37" spans="2:12">
       <c r="B37" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C37" s="21">
         <v>16</v>
@@ -9198,7 +9181,7 @@
     </row>
     <row r="38" spans="2:12">
       <c r="B38" s="22" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C38" s="23">
         <v>17</v>
@@ -9233,7 +9216,7 @@
     </row>
     <row r="39" spans="2:12">
       <c r="B39" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C39" s="21">
         <v>18</v>
@@ -9268,7 +9251,7 @@
     </row>
     <row r="40" spans="2:12">
       <c r="B40" s="22" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C40" s="23">
         <v>19</v>
@@ -9303,7 +9286,7 @@
     </row>
     <row r="41" spans="2:12">
       <c r="B41" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C41" s="21">
         <v>20</v>
@@ -9338,7 +9321,7 @@
     </row>
     <row r="42" spans="2:12">
       <c r="B42" s="22" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C42" s="23">
         <v>21</v>
@@ -9373,7 +9356,7 @@
     </row>
     <row r="43" spans="2:12">
       <c r="B43" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C43" s="21">
         <v>22</v>
@@ -9408,7 +9391,7 @@
     </row>
     <row r="44" spans="2:12">
       <c r="B44" s="22" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C44" s="23">
         <v>23</v>
@@ -9443,7 +9426,7 @@
     </row>
     <row r="45" spans="2:12">
       <c r="B45" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C45" s="21">
         <v>24</v>
@@ -9478,7 +9461,7 @@
     </row>
     <row r="46" spans="2:12">
       <c r="B46" s="22" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C46" s="23">
         <v>25</v>
@@ -9513,7 +9496,7 @@
     </row>
     <row r="47" spans="2:12">
       <c r="B47" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C47" s="21">
         <v>26</v>
@@ -9548,7 +9531,7 @@
     </row>
     <row r="48" spans="2:12">
       <c r="B48" s="22" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C48" s="23">
         <v>27</v>
@@ -9583,7 +9566,7 @@
     </row>
     <row r="49" spans="2:12">
       <c r="B49" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C49" s="21">
         <v>28</v>
@@ -9618,7 +9601,7 @@
     </row>
     <row r="50" spans="2:12">
       <c r="B50" s="22" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C50" s="23">
         <v>29</v>
@@ -9653,7 +9636,7 @@
     </row>
     <row r="51" spans="2:12">
       <c r="B51" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C51" s="21">
         <v>30</v>
@@ -9688,7 +9671,7 @@
     </row>
     <row r="52" spans="2:12">
       <c r="B52" s="22" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C52" s="23">
         <v>31</v>
@@ -9723,7 +9706,7 @@
     </row>
     <row r="53" spans="2:12">
       <c r="B53" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C53" s="21">
         <v>32</v>
@@ -9758,7 +9741,7 @@
     </row>
     <row r="54" spans="2:12">
       <c r="B54" s="22" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C54" s="23">
         <v>33</v>
@@ -9793,7 +9776,7 @@
     </row>
     <row r="55" spans="2:12">
       <c r="B55" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C55" s="21">
         <v>34</v>
@@ -9828,7 +9811,7 @@
     </row>
     <row r="56" spans="2:12">
       <c r="B56" s="22" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C56" s="23">
         <v>35</v>
@@ -9863,7 +9846,7 @@
     </row>
     <row r="57" spans="2:12">
       <c r="B57" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C57" s="21">
         <v>36</v>
@@ -9898,7 +9881,7 @@
     </row>
     <row r="58" spans="2:12">
       <c r="B58" s="22" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C58" s="23">
         <v>37</v>
@@ -9933,7 +9916,7 @@
     </row>
     <row r="59" spans="2:12">
       <c r="B59" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C59" s="21">
         <v>38</v>
@@ -9968,7 +9951,7 @@
     </row>
     <row r="60" spans="2:12">
       <c r="B60" s="22" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C60" s="23">
         <v>39</v>
@@ -10003,7 +9986,7 @@
     </row>
     <row r="61" spans="2:12">
       <c r="B61" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C61" s="21">
         <v>40</v>
@@ -10038,7 +10021,7 @@
     </row>
     <row r="62" spans="2:12">
       <c r="B62" s="22" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C62" s="23">
         <v>41</v>
@@ -10073,7 +10056,7 @@
     </row>
     <row r="63" spans="2:12">
       <c r="B63" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C63" s="21">
         <v>42</v>
@@ -10108,7 +10091,7 @@
     </row>
     <row r="64" spans="2:12">
       <c r="B64" s="22" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C64" s="23">
         <v>43</v>
@@ -10143,7 +10126,7 @@
     </row>
     <row r="65" spans="2:12">
       <c r="B65" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C65" s="21">
         <v>44</v>
@@ -10178,7 +10161,7 @@
     </row>
     <row r="66" spans="2:12">
       <c r="B66" s="22" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C66" s="23">
         <v>45</v>
@@ -10213,7 +10196,7 @@
     </row>
     <row r="67" spans="2:12">
       <c r="B67" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C67" s="21">
         <v>46</v>
@@ -10248,7 +10231,7 @@
     </row>
     <row r="68" spans="2:12">
       <c r="B68" s="22" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C68" s="23">
         <v>47</v>
@@ -10283,7 +10266,7 @@
     </row>
     <row r="69" spans="2:12">
       <c r="B69" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C69" s="21">
         <v>48</v>
@@ -10318,7 +10301,7 @@
     </row>
     <row r="70" spans="2:12">
       <c r="B70" s="22" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C70" s="23">
         <v>49</v>
@@ -10353,7 +10336,7 @@
     </row>
     <row r="71" spans="2:12">
       <c r="B71" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C71" s="21">
         <v>50</v>
@@ -10388,7 +10371,7 @@
     </row>
     <row r="72" spans="2:12">
       <c r="B72" s="22" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C72" s="23">
         <v>51</v>
@@ -10423,7 +10406,7 @@
     </row>
     <row r="73" spans="2:12">
       <c r="B73" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C73" s="21">
         <v>52</v>
@@ -10458,7 +10441,7 @@
     </row>
     <row r="74" spans="2:12">
       <c r="B74" s="22" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C74" s="23">
         <v>53</v>
@@ -10493,7 +10476,7 @@
     </row>
     <row r="75" spans="2:12">
       <c r="B75" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C75" s="21">
         <v>54</v>
@@ -10528,7 +10511,7 @@
     </row>
     <row r="76" spans="2:12">
       <c r="B76" s="22" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C76" s="23">
         <v>55</v>
@@ -10563,7 +10546,7 @@
     </row>
     <row r="77" spans="2:12">
       <c r="B77" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C77" s="21">
         <v>56</v>
@@ -10598,7 +10581,7 @@
     </row>
     <row r="78" spans="2:12">
       <c r="B78" s="22" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C78" s="23">
         <v>57</v>
@@ -10633,7 +10616,7 @@
     </row>
     <row r="79" spans="2:12">
       <c r="B79" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C79" s="21">
         <v>58</v>
@@ -10668,7 +10651,7 @@
     </row>
     <row r="80" spans="2:12">
       <c r="B80" s="22" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C80" s="23">
         <v>59</v>
@@ -10736,7 +10719,7 @@
   <sheetData>
     <row r="2" spans="2:16">
       <c r="B2" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -10752,51 +10735,51 @@
     </row>
     <row r="4" spans="2:16">
       <c r="B4" s="17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="17" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I4" s="17"/>
       <c r="J4" s="17" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K4" s="17"/>
     </row>
     <row r="5" spans="2:16">
       <c r="B5" s="26">
-        <v>71578652.58</v>
+        <v>67402845.31</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="26">
-        <v>1001400664.95</v>
+        <v>940339624.1399999</v>
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="26">
-        <v>738550498.7</v>
+        <v>692754718.11</v>
       </c>
       <c r="G5" s="26"/>
       <c r="H5" s="27">
-        <v>0.1087</v>
+        <v>0.102</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="28" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K5" s="28"/>
     </row>
     <row r="7" spans="2:16">
       <c r="B7" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -10806,74 +10789,74 @@
     </row>
     <row r="8" spans="2:16">
       <c r="B8" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="C8" s="27">
+        <v>0.4488724673100167</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="E8" s="27">
+        <v>0.2848367131681429</v>
+      </c>
+      <c r="F8" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="C8" s="27">
-        <v>0.4597860790449999</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="E8" s="27">
-        <v>0.2674484872445094</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>267</v>
-      </c>
       <c r="G8" s="27">
-        <v>0.2727654337104907</v>
+        <v>0.2662908195218405</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="35" customHeight="1">
       <c r="B10" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="D10" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="C10" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>176</v>
-      </c>
       <c r="E10" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="G10" s="29" t="s">
         <v>268</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="H10" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="I10" s="29" t="s">
         <v>270</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="J10" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="L10" s="29" t="s">
         <v>271</v>
       </c>
-      <c r="I10" s="29" t="s">
+      <c r="M10" s="29" t="s">
         <v>272</v>
       </c>
-      <c r="J10" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="K10" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="L10" s="29" t="s">
+      <c r="N10" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="M10" s="29" t="s">
+      <c r="O10" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="N10" s="29" t="s">
+      <c r="P10" s="29" t="s">
         <v>275</v>
-      </c>
-      <c r="O10" s="29" t="s">
-        <v>276</v>
-      </c>
-      <c r="P10" s="29" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="11" spans="2:16">
       <c r="B11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C11" s="21">
         <v>0</v>
@@ -10882,7 +10865,7 @@
         <v>4200000</v>
       </c>
       <c r="E11" s="21">
-        <v>9959</v>
+        <v>9129</v>
       </c>
       <c r="F11" s="21">
         <v>0</v>
@@ -10891,10 +10874,10 @@
         <v>0</v>
       </c>
       <c r="H11" s="21">
-        <v>9959</v>
+        <v>9129</v>
       </c>
       <c r="I11" s="14">
-        <v>0.0024</v>
+        <v>0.0022</v>
       </c>
       <c r="J11" s="14">
         <v>0</v>
@@ -10903,24 +10886,24 @@
         <v>50.33</v>
       </c>
       <c r="L11" s="16">
-        <v>501186.68</v>
+        <v>459416.93</v>
       </c>
       <c r="M11" s="16">
-        <v>125296.67</v>
+        <v>114854.23</v>
       </c>
       <c r="N11" s="16">
-        <v>-324109.99</v>
+        <v>-355437.31</v>
       </c>
       <c r="O11" s="16">
-        <v>501186.68</v>
+        <v>459416.93</v>
       </c>
       <c r="P11" s="16">
-        <v>-324109.99</v>
+        <v>-355437.31</v>
       </c>
     </row>
     <row r="12" spans="2:16">
       <c r="B12" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C12" s="23">
         <v>1</v>
@@ -10929,7 +10912,7 @@
         <v>4207000</v>
       </c>
       <c r="E12" s="23">
-        <v>13666</v>
+        <v>12527</v>
       </c>
       <c r="F12" s="23">
         <v>0</v>
@@ -10938,10 +10921,10 @@
         <v>0</v>
       </c>
       <c r="H12" s="23">
-        <v>13666</v>
+        <v>12527</v>
       </c>
       <c r="I12" s="24">
-        <v>0.0032</v>
+        <v>0.003</v>
       </c>
       <c r="J12" s="24">
         <v>0</v>
@@ -10950,24 +10933,24 @@
         <v>50.05</v>
       </c>
       <c r="L12" s="25">
-        <v>683990.13</v>
+        <v>626982.61</v>
       </c>
       <c r="M12" s="25">
-        <v>170997.53</v>
+        <v>156745.65</v>
       </c>
       <c r="N12" s="25">
-        <v>312992.6</v>
+        <v>270236.96</v>
       </c>
       <c r="O12" s="25">
-        <v>1185176.81</v>
+        <v>1086399.54</v>
       </c>
       <c r="P12" s="25">
-        <v>-11117.39</v>
+        <v>-85200.35000000001</v>
       </c>
     </row>
     <row r="13" spans="2:16">
       <c r="B13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C13" s="21">
         <v>2</v>
@@ -10976,7 +10959,7 @@
         <v>4214011</v>
       </c>
       <c r="E13" s="21">
-        <v>18625</v>
+        <v>17073</v>
       </c>
       <c r="F13" s="21">
         <v>0</v>
@@ -10985,10 +10968,10 @@
         <v>0</v>
       </c>
       <c r="H13" s="21">
-        <v>18625</v>
+        <v>17073</v>
       </c>
       <c r="I13" s="14">
-        <v>0.0044</v>
+        <v>0.0041</v>
       </c>
       <c r="J13" s="14">
         <v>0</v>
@@ -10997,24 +10980,24 @@
         <v>49.78</v>
       </c>
       <c r="L13" s="16">
-        <v>927078</v>
+        <v>849825.65</v>
       </c>
       <c r="M13" s="16">
-        <v>231769.5</v>
+        <v>212456.41</v>
       </c>
       <c r="N13" s="16">
-        <v>495308.5</v>
+        <v>437369.24</v>
       </c>
       <c r="O13" s="16">
-        <v>2112254.81</v>
+        <v>1936225.19</v>
       </c>
       <c r="P13" s="16">
-        <v>484191.11</v>
+        <v>352168.89</v>
       </c>
     </row>
     <row r="14" spans="2:16">
       <c r="B14" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C14" s="23">
         <v>3</v>
@@ -11023,7 +11006,7 @@
         <v>4221035</v>
       </c>
       <c r="E14" s="23">
-        <v>25157</v>
+        <v>23061</v>
       </c>
       <c r="F14" s="23">
         <v>0</v>
@@ -11032,10 +11015,10 @@
         <v>0</v>
       </c>
       <c r="H14" s="23">
-        <v>25157</v>
+        <v>23061</v>
       </c>
       <c r="I14" s="24">
-        <v>0.006</v>
+        <v>0.0055</v>
       </c>
       <c r="J14" s="24">
         <v>0</v>
@@ -11044,24 +11027,24 @@
         <v>49.5</v>
       </c>
       <c r="L14" s="25">
-        <v>1245309.24</v>
+        <v>1141554.09</v>
       </c>
       <c r="M14" s="25">
-        <v>311327.31</v>
+        <v>285388.52</v>
       </c>
       <c r="N14" s="25">
-        <v>733981.9300000001</v>
+        <v>656165.5699999999</v>
       </c>
       <c r="O14" s="25">
-        <v>3357564.04</v>
+        <v>3077779.28</v>
       </c>
       <c r="P14" s="25">
-        <v>1218173.03</v>
+        <v>1008334.46</v>
       </c>
     </row>
     <row r="15" spans="2:16">
       <c r="B15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C15" s="21">
         <v>4</v>
@@ -11070,19 +11053,19 @@
         <v>4228070</v>
       </c>
       <c r="E15" s="21">
-        <v>33585</v>
+        <v>30786</v>
       </c>
       <c r="F15" s="21">
         <v>0</v>
       </c>
       <c r="G15" s="21">
-        <v>3165</v>
+        <v>2901</v>
       </c>
       <c r="H15" s="21">
-        <v>36750</v>
+        <v>33687</v>
       </c>
       <c r="I15" s="14">
-        <v>0.008699999999999999</v>
+        <v>0.008</v>
       </c>
       <c r="J15" s="14">
         <v>0</v>
@@ -11091,24 +11074,24 @@
         <v>49.23</v>
       </c>
       <c r="L15" s="16">
-        <v>1809092.25</v>
+        <v>1658309.95</v>
       </c>
       <c r="M15" s="16">
-        <v>452273.06</v>
+        <v>414577.49</v>
       </c>
       <c r="N15" s="16">
-        <v>1156819.19</v>
+        <v>1043732.46</v>
       </c>
       <c r="O15" s="16">
-        <v>5166656.29</v>
+        <v>4736089.23</v>
       </c>
       <c r="P15" s="16">
-        <v>2374992.22</v>
+        <v>2052066.92</v>
       </c>
     </row>
     <row r="16" spans="2:16">
       <c r="B16" s="22" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C16" s="23">
         <v>5</v>
@@ -11117,19 +11100,19 @@
         <v>4235116</v>
       </c>
       <c r="E16" s="23">
-        <v>44174</v>
+        <v>40492</v>
       </c>
       <c r="F16" s="23">
         <v>0</v>
       </c>
       <c r="G16" s="23">
-        <v>8326</v>
+        <v>7632</v>
       </c>
       <c r="H16" s="23">
-        <v>52500</v>
+        <v>48124</v>
       </c>
       <c r="I16" s="24">
-        <v>0.0124</v>
+        <v>0.0114</v>
       </c>
       <c r="J16" s="24">
         <v>0</v>
@@ -11138,24 +11121,24 @@
         <v>48.95</v>
       </c>
       <c r="L16" s="25">
-        <v>2570006.25</v>
+        <v>2355790.11</v>
       </c>
       <c r="M16" s="25">
-        <v>642501.5600000001</v>
+        <v>588947.53</v>
       </c>
       <c r="N16" s="25">
-        <v>1727504.69</v>
+        <v>1566842.58</v>
       </c>
       <c r="O16" s="25">
-        <v>7736662.54</v>
+        <v>7091879.34</v>
       </c>
       <c r="P16" s="25">
-        <v>4102496.91</v>
+        <v>3618909.5</v>
       </c>
     </row>
     <row r="17" spans="2:16">
       <c r="B17" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C17" s="21">
         <v>6</v>
@@ -11164,19 +11147,19 @@
         <v>4242175</v>
       </c>
       <c r="E17" s="21">
-        <v>57044</v>
+        <v>52291</v>
       </c>
       <c r="F17" s="21">
         <v>0</v>
       </c>
       <c r="G17" s="21">
-        <v>16129</v>
+        <v>14785</v>
       </c>
       <c r="H17" s="21">
-        <v>73173</v>
+        <v>67076</v>
       </c>
       <c r="I17" s="14">
-        <v>0.0172</v>
+        <v>0.0158</v>
       </c>
       <c r="J17" s="14">
         <v>0</v>
@@ -11185,24 +11168,24 @@
         <v>48.68</v>
       </c>
       <c r="L17" s="16">
-        <v>3561915.29</v>
+        <v>3265125.53</v>
       </c>
       <c r="M17" s="16">
-        <v>890478.8199999999</v>
+        <v>816281.38</v>
       </c>
       <c r="N17" s="16">
-        <v>2471436.47</v>
+        <v>2248844.15</v>
       </c>
       <c r="O17" s="16">
-        <v>11298577.84</v>
+        <v>10357004.87</v>
       </c>
       <c r="P17" s="16">
-        <v>6573933.38</v>
+        <v>5867753.65</v>
       </c>
     </row>
     <row r="18" spans="2:16">
       <c r="B18" s="22" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C18" s="23">
         <v>7</v>
@@ -11211,19 +11194,19 @@
         <v>4249245</v>
       </c>
       <c r="E18" s="23">
-        <v>72076</v>
+        <v>66070</v>
       </c>
       <c r="F18" s="23">
         <v>44221</v>
       </c>
       <c r="G18" s="23">
-        <v>27172</v>
+        <v>24908</v>
       </c>
       <c r="H18" s="23">
-        <v>143469</v>
+        <v>135199</v>
       </c>
       <c r="I18" s="24">
-        <v>0.0338</v>
+        <v>0.0318</v>
       </c>
       <c r="J18" s="24">
         <v>0.125</v>
@@ -11232,24 +11215,24 @@
         <v>48.4</v>
       </c>
       <c r="L18" s="25">
-        <v>6944401.74</v>
+        <v>6544104.8</v>
       </c>
       <c r="M18" s="25">
-        <v>1736100.44</v>
+        <v>1636026.2</v>
       </c>
       <c r="N18" s="25">
-        <v>5008301.31</v>
+        <v>4708078.6</v>
       </c>
       <c r="O18" s="25">
-        <v>18242979.58</v>
+        <v>16901109.66</v>
       </c>
       <c r="P18" s="25">
-        <v>11582234.68</v>
+        <v>10575832.25</v>
       </c>
     </row>
     <row r="19" spans="2:16">
       <c r="B19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C19" s="21">
         <v>8</v>
@@ -11258,19 +11241,19 @@
         <v>4256327</v>
       </c>
       <c r="E19" s="21">
-        <v>88835</v>
+        <v>81432</v>
       </c>
       <c r="F19" s="21">
         <v>78107</v>
       </c>
       <c r="G19" s="21">
-        <v>41863</v>
+        <v>38374</v>
       </c>
       <c r="H19" s="21">
-        <v>208805</v>
+        <v>197913</v>
       </c>
       <c r="I19" s="14">
-        <v>0.0491</v>
+        <v>0.0465</v>
       </c>
       <c r="J19" s="14">
         <v>0.25</v>
@@ -11279,24 +11262,24 @@
         <v>48.13</v>
       </c>
       <c r="L19" s="16">
-        <v>10049575.85</v>
+        <v>9525354.779999999</v>
       </c>
       <c r="M19" s="16">
-        <v>2512393.96</v>
+        <v>2381338.69</v>
       </c>
       <c r="N19" s="16">
-        <v>7337181.88</v>
+        <v>6944016.08</v>
       </c>
       <c r="O19" s="16">
-        <v>28292555.42</v>
+        <v>26426464.44</v>
       </c>
       <c r="P19" s="16">
-        <v>18919416.57</v>
+        <v>17519848.33</v>
       </c>
     </row>
     <row r="20" spans="2:16">
       <c r="B20" s="22" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C20" s="23">
         <v>9</v>
@@ -11305,19 +11288,19 @@
         <v>4263421</v>
       </c>
       <c r="E20" s="23">
-        <v>106585</v>
+        <v>97703</v>
       </c>
       <c r="F20" s="23">
         <v>100723</v>
       </c>
       <c r="G20" s="23">
-        <v>60273</v>
+        <v>55251</v>
       </c>
       <c r="H20" s="23">
-        <v>267581</v>
+        <v>253677</v>
       </c>
       <c r="I20" s="24">
-        <v>0.06279999999999999</v>
+        <v>0.0595</v>
       </c>
       <c r="J20" s="24">
         <v>0.375</v>
@@ -11326,24 +11309,24 @@
         <v>47.85</v>
       </c>
       <c r="L20" s="25">
-        <v>12804954.96</v>
+        <v>12139586</v>
       </c>
       <c r="M20" s="25">
-        <v>3201238.74</v>
+        <v>3034896.5</v>
       </c>
       <c r="N20" s="25">
-        <v>9403716.220000001</v>
+        <v>8904689.5</v>
       </c>
       <c r="O20" s="25">
-        <v>41097510.39</v>
+        <v>38566050.44</v>
       </c>
       <c r="P20" s="25">
-        <v>28323132.79</v>
+        <v>26424537.83</v>
       </c>
     </row>
     <row r="21" spans="2:16">
       <c r="B21" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C21" s="21">
         <v>10</v>
@@ -11352,19 +11335,19 @@
         <v>4270527</v>
       </c>
       <c r="E21" s="21">
-        <v>124394</v>
+        <v>114027</v>
       </c>
       <c r="F21" s="21">
         <v>112306</v>
       </c>
       <c r="G21" s="21">
-        <v>70344</v>
+        <v>64482</v>
       </c>
       <c r="H21" s="21">
-        <v>307044</v>
+        <v>290815</v>
       </c>
       <c r="I21" s="14">
-        <v>0.07190000000000001</v>
+        <v>0.06809999999999999</v>
       </c>
       <c r="J21" s="14">
         <v>0.5</v>
@@ -11373,24 +11356,24 @@
         <v>47.58</v>
       </c>
       <c r="L21" s="16">
-        <v>14609153.52</v>
+        <v>13836977.7</v>
       </c>
       <c r="M21" s="16">
-        <v>3652288.38</v>
+        <v>3459244.42</v>
       </c>
       <c r="N21" s="16">
-        <v>10756865.14</v>
+        <v>10177733.27</v>
       </c>
       <c r="O21" s="16">
-        <v>55706663.91</v>
+        <v>52403028.14</v>
       </c>
       <c r="P21" s="16">
-        <v>39079997.93</v>
+        <v>36602271.1</v>
       </c>
     </row>
     <row r="22" spans="2:16">
       <c r="B22" s="22" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C22" s="23">
         <v>11</v>
@@ -11399,19 +11382,19 @@
         <v>4277644</v>
       </c>
       <c r="E22" s="23">
-        <v>141324</v>
+        <v>129547</v>
       </c>
       <c r="F22" s="23">
         <v>114279</v>
       </c>
       <c r="G22" s="23">
-        <v>79918</v>
+        <v>73258</v>
       </c>
       <c r="H22" s="23">
-        <v>335521</v>
+        <v>317084</v>
       </c>
       <c r="I22" s="24">
-        <v>0.0784</v>
+        <v>0.0741</v>
       </c>
       <c r="J22" s="24">
         <v>0.625</v>
@@ -11420,24 +11403,24 @@
         <v>47.31</v>
       </c>
       <c r="L22" s="25">
-        <v>15871988.67</v>
+        <v>14999817.16</v>
       </c>
       <c r="M22" s="25">
-        <v>3967997.17</v>
+        <v>3749954.29</v>
       </c>
       <c r="N22" s="25">
-        <v>11703991.5</v>
+        <v>11049862.87</v>
       </c>
       <c r="O22" s="25">
-        <v>71578652.56999999</v>
+        <v>67402845.3</v>
       </c>
       <c r="P22" s="25">
-        <v>50783989.43</v>
+        <v>47652133.97</v>
       </c>
     </row>
     <row r="23" spans="2:16">
       <c r="B23" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C23" s="21">
         <v>12</v>
@@ -11446,19 +11429,19 @@
         <v>4284774</v>
       </c>
       <c r="E23" s="21">
-        <v>156621</v>
+        <v>143569</v>
       </c>
       <c r="F23" s="21">
         <v>121473</v>
       </c>
       <c r="G23" s="21">
-        <v>88569</v>
+        <v>81188</v>
       </c>
       <c r="H23" s="21">
-        <v>366663</v>
+        <v>346230</v>
       </c>
       <c r="I23" s="14">
-        <v>0.0856</v>
+        <v>0.0808</v>
       </c>
       <c r="J23" s="14">
         <v>0.75</v>
@@ -11467,24 +11450,24 @@
         <v>47.03</v>
       </c>
       <c r="L23" s="16">
-        <v>17244527.55</v>
+        <v>16283543.13</v>
       </c>
       <c r="M23" s="16">
-        <v>4311131.89</v>
+        <v>4070885.78</v>
       </c>
       <c r="N23" s="16">
-        <v>12733395.66</v>
+        <v>12012657.35</v>
       </c>
       <c r="O23" s="16">
-        <v>88823180.13</v>
+        <v>83686388.43000001</v>
       </c>
       <c r="P23" s="16">
-        <v>63517385.1</v>
+        <v>59664791.32</v>
       </c>
     </row>
     <row r="24" spans="2:16">
       <c r="B24" s="22" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C24" s="23">
         <v>13</v>
@@ -11493,19 +11476,19 @@
         <v>4291915</v>
       </c>
       <c r="E24" s="23">
-        <v>169829</v>
+        <v>155676</v>
       </c>
       <c r="F24" s="23">
         <v>121675</v>
       </c>
       <c r="G24" s="23">
-        <v>96038</v>
+        <v>88034</v>
       </c>
       <c r="H24" s="23">
-        <v>387542</v>
+        <v>365385</v>
       </c>
       <c r="I24" s="24">
-        <v>0.09030000000000001</v>
+        <v>0.0851</v>
       </c>
       <c r="J24" s="24">
         <v>0.75</v>
@@ -11514,24 +11497,24 @@
         <v>46.76</v>
       </c>
       <c r="L24" s="25">
-        <v>18120107.52</v>
+        <v>17084123.75</v>
       </c>
       <c r="M24" s="25">
-        <v>4530026.88</v>
+        <v>4271030.94</v>
       </c>
       <c r="N24" s="25">
-        <v>13390080.64</v>
+        <v>12613092.81</v>
       </c>
       <c r="O24" s="25">
-        <v>106943287.65</v>
+        <v>100770512.18</v>
       </c>
       <c r="P24" s="25">
-        <v>76907465.73999999</v>
+        <v>72277884.13</v>
       </c>
     </row>
     <row r="25" spans="2:16">
       <c r="B25" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C25" s="21">
         <v>14</v>
@@ -11540,19 +11523,19 @@
         <v>4299068</v>
       </c>
       <c r="E25" s="21">
-        <v>180803</v>
+        <v>165736</v>
       </c>
       <c r="F25" s="21">
         <v>121878</v>
       </c>
       <c r="G25" s="21">
-        <v>102244</v>
+        <v>93723</v>
       </c>
       <c r="H25" s="21">
-        <v>404925</v>
+        <v>381337</v>
       </c>
       <c r="I25" s="14">
-        <v>0.09420000000000001</v>
+        <v>0.0887</v>
       </c>
       <c r="J25" s="14">
         <v>0.75</v>
@@ -11561,24 +11544,24 @@
         <v>46.48</v>
       </c>
       <c r="L25" s="16">
-        <v>18821723.85</v>
+        <v>17725306.43</v>
       </c>
       <c r="M25" s="16">
-        <v>4705430.96</v>
+        <v>4431326.61</v>
       </c>
       <c r="N25" s="16">
-        <v>13916292.89</v>
+        <v>13093979.83</v>
       </c>
       <c r="O25" s="16">
-        <v>125765011.5</v>
+        <v>118495818.61</v>
       </c>
       <c r="P25" s="16">
-        <v>90823758.62</v>
+        <v>85371863.95999999</v>
       </c>
     </row>
     <row r="26" spans="2:16">
       <c r="B26" s="22" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C26" s="23">
         <v>15</v>
@@ -11587,19 +11570,19 @@
         <v>4306233</v>
       </c>
       <c r="E26" s="23">
-        <v>189645</v>
+        <v>173842</v>
       </c>
       <c r="F26" s="23">
         <v>122081</v>
       </c>
       <c r="G26" s="23">
-        <v>115233</v>
+        <v>105630</v>
       </c>
       <c r="H26" s="23">
-        <v>426959</v>
+        <v>401553</v>
       </c>
       <c r="I26" s="24">
-        <v>0.09909999999999999</v>
+        <v>0.09320000000000001</v>
       </c>
       <c r="J26" s="24">
         <v>0.75</v>
@@ -11608,24 +11591,24 @@
         <v>46.21</v>
       </c>
       <c r="L26" s="25">
-        <v>19728707.99</v>
+        <v>18554760.25</v>
       </c>
       <c r="M26" s="25">
-        <v>4932177</v>
+        <v>4638690.06</v>
       </c>
       <c r="N26" s="25">
-        <v>14596530.99</v>
+        <v>13716070.19</v>
       </c>
       <c r="O26" s="25">
-        <v>145493719.49</v>
+        <v>137050578.86</v>
       </c>
       <c r="P26" s="25">
-        <v>105420289.62</v>
+        <v>99087934.15000001</v>
       </c>
     </row>
     <row r="27" spans="2:16">
       <c r="B27" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C27" s="21">
         <v>16</v>
@@ -11634,19 +11617,19 @@
         <v>4313410</v>
       </c>
       <c r="E27" s="21">
-        <v>196605</v>
+        <v>180221</v>
       </c>
       <c r="F27" s="21">
         <v>122285</v>
       </c>
       <c r="G27" s="21">
-        <v>119462</v>
+        <v>109506</v>
       </c>
       <c r="H27" s="21">
-        <v>438352</v>
+        <v>412012</v>
       </c>
       <c r="I27" s="14">
-        <v>0.1016</v>
+        <v>0.0955</v>
       </c>
       <c r="J27" s="14">
         <v>0.75</v>
@@ -11655,24 +11638,24 @@
         <v>45.93</v>
       </c>
       <c r="L27" s="16">
-        <v>20134822.42</v>
+        <v>18924947.2</v>
       </c>
       <c r="M27" s="16">
-        <v>5033705.6</v>
+        <v>4731236.8</v>
       </c>
       <c r="N27" s="16">
-        <v>14901116.81</v>
+        <v>13993710.4</v>
       </c>
       <c r="O27" s="16">
-        <v>165628541.91</v>
+        <v>155975526.06</v>
       </c>
       <c r="P27" s="16">
-        <v>120321406.43</v>
+        <v>113081644.54</v>
       </c>
     </row>
     <row r="28" spans="2:16">
       <c r="B28" s="22" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C28" s="23">
         <v>17</v>
@@ -11681,19 +11664,19 @@
         <v>4320599</v>
       </c>
       <c r="E28" s="23">
-        <v>201994</v>
+        <v>185161</v>
       </c>
       <c r="F28" s="23">
         <v>122489</v>
       </c>
       <c r="G28" s="23">
-        <v>122736</v>
+        <v>112508</v>
       </c>
       <c r="H28" s="23">
-        <v>447219</v>
+        <v>420158</v>
       </c>
       <c r="I28" s="24">
-        <v>0.1035</v>
+        <v>0.09719999999999999</v>
       </c>
       <c r="J28" s="24">
         <v>0.75</v>
@@ -11702,24 +11685,24 @@
         <v>45.66</v>
       </c>
       <c r="L28" s="25">
-        <v>20419348.71</v>
+        <v>19183784.04</v>
       </c>
       <c r="M28" s="25">
-        <v>5104837.18</v>
+        <v>4795946.01</v>
       </c>
       <c r="N28" s="25">
-        <v>15114511.53</v>
+        <v>14187838.03</v>
       </c>
       <c r="O28" s="25">
-        <v>186047890.62</v>
+        <v>175159310.1</v>
       </c>
       <c r="P28" s="25">
-        <v>135435917.97</v>
+        <v>127269482.57</v>
       </c>
     </row>
     <row r="29" spans="2:16">
       <c r="B29" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C29" s="21">
         <v>18</v>
@@ -11728,19 +11711,19 @@
         <v>4327800</v>
       </c>
       <c r="E29" s="21">
-        <v>206127</v>
+        <v>188950</v>
       </c>
       <c r="F29" s="21">
         <v>122693</v>
       </c>
       <c r="G29" s="21">
-        <v>125247</v>
+        <v>114810</v>
       </c>
       <c r="H29" s="21">
-        <v>454067</v>
+        <v>426453</v>
       </c>
       <c r="I29" s="14">
-        <v>0.1049</v>
+        <v>0.0985</v>
       </c>
       <c r="J29" s="14">
         <v>0.75</v>
@@ -11749,24 +11732,24 @@
         <v>45.38</v>
       </c>
       <c r="L29" s="16">
-        <v>20607376.73</v>
+        <v>19354142.95</v>
       </c>
       <c r="M29" s="16">
-        <v>5151844.18</v>
+        <v>4838535.74</v>
       </c>
       <c r="N29" s="16">
-        <v>15255532.55</v>
+        <v>14315607.21</v>
       </c>
       <c r="O29" s="16">
-        <v>206655267.35</v>
+        <v>194513453.05</v>
       </c>
       <c r="P29" s="16">
-        <v>150691450.51</v>
+        <v>141585089.79</v>
       </c>
     </row>
     <row r="30" spans="2:16">
       <c r="B30" s="22" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C30" s="23">
         <v>19</v>
@@ -11775,19 +11758,19 @@
         <v>4335013</v>
       </c>
       <c r="E30" s="23">
-        <v>209284</v>
+        <v>191844</v>
       </c>
       <c r="F30" s="23">
         <v>122897</v>
       </c>
       <c r="G30" s="23">
-        <v>127166</v>
+        <v>116569</v>
       </c>
       <c r="H30" s="23">
-        <v>459347</v>
+        <v>431310</v>
       </c>
       <c r="I30" s="24">
-        <v>0.106</v>
+        <v>0.09950000000000001</v>
       </c>
       <c r="J30" s="24">
         <v>0.75</v>
@@ -11796,24 +11779,24 @@
         <v>45.11</v>
       </c>
       <c r="L30" s="25">
-        <v>20720913.5</v>
+        <v>19456178.45</v>
       </c>
       <c r="M30" s="25">
-        <v>5180228.37</v>
+        <v>4864044.61</v>
       </c>
       <c r="N30" s="25">
-        <v>15340685.12</v>
+        <v>14392133.83</v>
       </c>
       <c r="O30" s="25">
-        <v>227376180.84</v>
+        <v>213969631.5</v>
       </c>
       <c r="P30" s="25">
-        <v>166032135.63</v>
+        <v>155977223.62</v>
       </c>
     </row>
     <row r="31" spans="2:16">
       <c r="B31" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C31" s="21">
         <v>20</v>
@@ -11822,19 +11805,19 @@
         <v>4342238</v>
       </c>
       <c r="E31" s="21">
-        <v>211700</v>
+        <v>194058</v>
       </c>
       <c r="F31" s="21">
         <v>123102</v>
       </c>
       <c r="G31" s="21">
-        <v>128634</v>
+        <v>117914</v>
       </c>
       <c r="H31" s="21">
-        <v>463436</v>
+        <v>435074</v>
       </c>
       <c r="I31" s="14">
-        <v>0.1067</v>
+        <v>0.1002</v>
       </c>
       <c r="J31" s="14">
         <v>0.75</v>
@@ -11843,24 +11826,24 @@
         <v>44.84</v>
       </c>
       <c r="L31" s="16">
-        <v>20778153.06</v>
+        <v>19506542.79</v>
       </c>
       <c r="M31" s="16">
-        <v>5194538.26</v>
+        <v>4876635.7</v>
       </c>
       <c r="N31" s="16">
-        <v>15383614.79</v>
+        <v>14429907.09</v>
       </c>
       <c r="O31" s="16">
-        <v>248154333.9</v>
+        <v>233476174.29</v>
       </c>
       <c r="P31" s="16">
-        <v>181415750.43</v>
+        <v>170407130.72</v>
       </c>
     </row>
     <row r="32" spans="2:16">
       <c r="B32" s="22" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C32" s="23">
         <v>21</v>
@@ -11869,19 +11852,19 @@
         <v>4349476</v>
       </c>
       <c r="E32" s="23">
-        <v>213562</v>
+        <v>195765</v>
       </c>
       <c r="F32" s="23">
         <v>123307</v>
       </c>
       <c r="G32" s="23">
-        <v>129765</v>
+        <v>118951</v>
       </c>
       <c r="H32" s="23">
-        <v>466634</v>
+        <v>438023</v>
       </c>
       <c r="I32" s="24">
-        <v>0.1073</v>
+        <v>0.1007</v>
       </c>
       <c r="J32" s="24">
         <v>0.75</v>
@@ -11890,24 +11873,24 @@
         <v>44.56</v>
       </c>
       <c r="L32" s="25">
-        <v>20793444.36</v>
+        <v>19518523.89</v>
       </c>
       <c r="M32" s="25">
-        <v>5198361.09</v>
+        <v>4879630.97</v>
       </c>
       <c r="N32" s="25">
-        <v>15395083.27</v>
+        <v>14438892.92</v>
       </c>
       <c r="O32" s="25">
-        <v>268947778.26</v>
+        <v>252994698.18</v>
       </c>
       <c r="P32" s="25">
-        <v>196810833.7</v>
+        <v>184846023.63</v>
       </c>
     </row>
     <row r="33" spans="2:16">
       <c r="B33" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C33" s="21">
         <v>22</v>
@@ -11916,19 +11899,19 @@
         <v>4356725</v>
       </c>
       <c r="E33" s="21">
-        <v>215014</v>
+        <v>197096</v>
       </c>
       <c r="F33" s="21">
         <v>123513</v>
       </c>
       <c r="G33" s="21">
-        <v>130647</v>
+        <v>119760</v>
       </c>
       <c r="H33" s="21">
-        <v>469174</v>
+        <v>440369</v>
       </c>
       <c r="I33" s="14">
-        <v>0.1077</v>
+        <v>0.1011</v>
       </c>
       <c r="J33" s="14">
         <v>0.75</v>
@@ -11937,24 +11920,24 @@
         <v>44.29</v>
       </c>
       <c r="L33" s="16">
-        <v>20777839.76</v>
+        <v>19502181.53</v>
       </c>
       <c r="M33" s="16">
-        <v>5194459.94</v>
+        <v>4875545.38</v>
       </c>
       <c r="N33" s="16">
-        <v>15383379.82</v>
+        <v>14426636.15</v>
       </c>
       <c r="O33" s="16">
-        <v>289725618.03</v>
+        <v>272496879.71</v>
       </c>
       <c r="P33" s="16">
-        <v>212194213.52</v>
+        <v>199272659.78</v>
       </c>
     </row>
     <row r="34" spans="2:16">
       <c r="B34" s="22" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C34" s="23">
         <v>23</v>
@@ -11963,19 +11946,19 @@
         <v>4363986</v>
       </c>
       <c r="E34" s="23">
-        <v>216166</v>
+        <v>198152</v>
       </c>
       <c r="F34" s="23">
         <v>123719</v>
       </c>
       <c r="G34" s="23">
-        <v>131347</v>
+        <v>120402</v>
       </c>
       <c r="H34" s="23">
-        <v>471232</v>
+        <v>442273</v>
       </c>
       <c r="I34" s="24">
-        <v>0.108</v>
+        <v>0.1013</v>
       </c>
       <c r="J34" s="24">
         <v>0.75</v>
@@ -11984,24 +11967,24 @@
         <v>44.01</v>
       </c>
       <c r="L34" s="25">
-        <v>20739627.17</v>
+        <v>19465098.14</v>
       </c>
       <c r="M34" s="25">
-        <v>5184906.79</v>
+        <v>4866274.53</v>
       </c>
       <c r="N34" s="25">
-        <v>15354720.38</v>
+        <v>14398823.6</v>
       </c>
       <c r="O34" s="25">
-        <v>310465245.19</v>
+        <v>291961977.85</v>
       </c>
       <c r="P34" s="25">
-        <v>227548933.9</v>
+        <v>213671483.39</v>
       </c>
     </row>
     <row r="35" spans="2:16">
       <c r="B35" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C35" s="21">
         <v>24</v>
@@ -12010,19 +11993,19 @@
         <v>4371259</v>
       </c>
       <c r="E35" s="21">
-        <v>217100</v>
+        <v>199008</v>
       </c>
       <c r="F35" s="21">
         <v>123925</v>
       </c>
       <c r="G35" s="21">
-        <v>131915</v>
+        <v>120922</v>
       </c>
       <c r="H35" s="21">
-        <v>472940</v>
+        <v>443855</v>
       </c>
       <c r="I35" s="14">
-        <v>0.1082</v>
+        <v>0.1015</v>
       </c>
       <c r="J35" s="14">
         <v>0.75</v>
@@ -12031,24 +12014,24 @@
         <v>43.74</v>
       </c>
       <c r="L35" s="16">
-        <v>20684976.78</v>
+        <v>19412886.14</v>
       </c>
       <c r="M35" s="16">
-        <v>5171244.2</v>
+        <v>4853221.53</v>
       </c>
       <c r="N35" s="16">
-        <v>15313732.59</v>
+        <v>14359664.6</v>
       </c>
       <c r="O35" s="16">
-        <v>331150221.97</v>
+        <v>311374863.99</v>
       </c>
       <c r="P35" s="16">
-        <v>242862666.48</v>
+        <v>228031147.99</v>
       </c>
     </row>
     <row r="36" spans="2:16">
       <c r="B36" s="22" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C36" s="23">
         <v>25</v>
@@ -12057,19 +12040,19 @@
         <v>4378545</v>
       </c>
       <c r="E36" s="23">
-        <v>217875</v>
+        <v>199719</v>
       </c>
       <c r="F36" s="23">
         <v>124131</v>
       </c>
       <c r="G36" s="23">
-        <v>132386</v>
+        <v>121354</v>
       </c>
       <c r="H36" s="23">
-        <v>474392</v>
+        <v>445204</v>
       </c>
       <c r="I36" s="24">
-        <v>0.1083</v>
+        <v>0.1017</v>
       </c>
       <c r="J36" s="24">
         <v>0.75</v>
@@ -12078,24 +12061,24 @@
         <v>43.46</v>
       </c>
       <c r="L36" s="25">
-        <v>20618262.3</v>
+        <v>19349678.85</v>
       </c>
       <c r="M36" s="25">
-        <v>5154565.58</v>
+        <v>4837419.71</v>
       </c>
       <c r="N36" s="25">
-        <v>15263696.73</v>
+        <v>14312259.14</v>
       </c>
       <c r="O36" s="25">
-        <v>351768484.27</v>
+        <v>330724542.84</v>
       </c>
       <c r="P36" s="25">
-        <v>258126363.21</v>
+        <v>242343407.13</v>
       </c>
     </row>
     <row r="37" spans="2:16">
       <c r="B37" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C37" s="21">
         <v>26</v>
@@ -12104,19 +12087,19 @@
         <v>4385842</v>
       </c>
       <c r="E37" s="21">
-        <v>218536</v>
+        <v>200324</v>
       </c>
       <c r="F37" s="21">
         <v>124338</v>
       </c>
       <c r="G37" s="21">
-        <v>132787</v>
+        <v>121721</v>
       </c>
       <c r="H37" s="21">
-        <v>475661</v>
+        <v>446383</v>
       </c>
       <c r="I37" s="14">
-        <v>0.1085</v>
+        <v>0.1018</v>
       </c>
       <c r="J37" s="14">
         <v>0.75</v>
@@ -12125,24 +12108,24 @@
         <v>43.19</v>
       </c>
       <c r="L37" s="16">
-        <v>20542847.27</v>
+        <v>19278389</v>
       </c>
       <c r="M37" s="16">
-        <v>5135711.82</v>
+        <v>4819597.25</v>
       </c>
       <c r="N37" s="16">
-        <v>15207135.45</v>
+        <v>14258791.75</v>
       </c>
       <c r="O37" s="16">
-        <v>372311331.54</v>
+        <v>350002931.84</v>
       </c>
       <c r="P37" s="16">
-        <v>273333498.66</v>
+        <v>256602198.88</v>
       </c>
     </row>
     <row r="38" spans="2:16">
       <c r="B38" s="22" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C38" s="23">
         <v>27</v>
@@ -12151,19 +12134,19 @@
         <v>4393152</v>
       </c>
       <c r="E38" s="23">
-        <v>219114</v>
+        <v>200854</v>
       </c>
       <c r="F38" s="23">
         <v>124545</v>
       </c>
       <c r="G38" s="23">
-        <v>133139</v>
+        <v>122043</v>
       </c>
       <c r="H38" s="23">
-        <v>476798</v>
+        <v>447442</v>
       </c>
       <c r="I38" s="24">
-        <v>0.1085</v>
+        <v>0.1018</v>
       </c>
       <c r="J38" s="24">
         <v>0.75</v>
@@ -12172,24 +12155,24 @@
         <v>42.91</v>
       </c>
       <c r="L38" s="25">
-        <v>20461070.97</v>
+        <v>19201302.27</v>
       </c>
       <c r="M38" s="25">
-        <v>5115267.74</v>
+        <v>4800325.57</v>
       </c>
       <c r="N38" s="25">
-        <v>15145803.23</v>
+        <v>14200976.7</v>
       </c>
       <c r="O38" s="25">
-        <v>392772402.51</v>
+        <v>369204234.11</v>
       </c>
       <c r="P38" s="25">
-        <v>288479301.89</v>
+        <v>270803175.58</v>
       </c>
     </row>
     <row r="39" spans="2:16">
       <c r="B39" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C39" s="21">
         <v>28</v>
@@ -12198,19 +12181,19 @@
         <v>4400474</v>
       </c>
       <c r="E39" s="21">
-        <v>219633</v>
+        <v>201330</v>
       </c>
       <c r="F39" s="21">
         <v>124753</v>
       </c>
       <c r="G39" s="21">
-        <v>133454</v>
+        <v>122333</v>
       </c>
       <c r="H39" s="21">
-        <v>477840</v>
+        <v>448416</v>
       </c>
       <c r="I39" s="14">
-        <v>0.1086</v>
+        <v>0.1019</v>
       </c>
       <c r="J39" s="14">
         <v>0.75</v>
@@ -12219,24 +12202,24 @@
         <v>42.64</v>
       </c>
       <c r="L39" s="16">
-        <v>20374619.76</v>
+        <v>19120009.82</v>
       </c>
       <c r="M39" s="16">
-        <v>5093654.94</v>
+        <v>4780002.46</v>
       </c>
       <c r="N39" s="16">
-        <v>15080964.82</v>
+        <v>14140007.37</v>
       </c>
       <c r="O39" s="16">
-        <v>413147022.27</v>
+        <v>388324243.93</v>
       </c>
       <c r="P39" s="16">
-        <v>303560266.71</v>
+        <v>284943182.95</v>
       </c>
     </row>
     <row r="40" spans="2:16">
       <c r="B40" s="22" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C40" s="23">
         <v>29</v>
@@ -12245,19 +12228,19 @@
         <v>4407808</v>
       </c>
       <c r="E40" s="23">
-        <v>220110</v>
+        <v>201767</v>
       </c>
       <c r="F40" s="23">
         <v>124961</v>
       </c>
       <c r="G40" s="23">
-        <v>133744</v>
+        <v>122598</v>
       </c>
       <c r="H40" s="23">
-        <v>478815</v>
+        <v>449326</v>
       </c>
       <c r="I40" s="24">
-        <v>0.1086</v>
+        <v>0.1019</v>
       </c>
       <c r="J40" s="24">
         <v>0.75</v>
@@ -12266,24 +12249,24 @@
         <v>42.36</v>
       </c>
       <c r="L40" s="25">
-        <v>20284758.07</v>
+        <v>19035471.33</v>
       </c>
       <c r="M40" s="25">
-        <v>5071189.52</v>
+        <v>4758867.83</v>
       </c>
       <c r="N40" s="25">
-        <v>15013568.55</v>
+        <v>14076603.5</v>
       </c>
       <c r="O40" s="25">
-        <v>433431780.34</v>
+        <v>407359715.26</v>
       </c>
       <c r="P40" s="25">
-        <v>318573835.26</v>
+        <v>299019786.44</v>
       </c>
     </row>
     <row r="41" spans="2:16">
       <c r="B41" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C41" s="21">
         <v>30</v>
@@ -12292,19 +12275,19 @@
         <v>4415154</v>
       </c>
       <c r="E41" s="21">
-        <v>220556</v>
+        <v>202176</v>
       </c>
       <c r="F41" s="21">
         <v>125169</v>
       </c>
       <c r="G41" s="21">
-        <v>134015</v>
+        <v>122847</v>
       </c>
       <c r="H41" s="21">
-        <v>479740</v>
+        <v>450192</v>
       </c>
       <c r="I41" s="14">
-        <v>0.1087</v>
+        <v>0.102</v>
       </c>
       <c r="J41" s="14">
         <v>0.75</v>
@@ -12313,24 +12296,24 @@
         <v>42.09</v>
       </c>
       <c r="L41" s="16">
-        <v>20192256.6</v>
+        <v>18948581.28</v>
       </c>
       <c r="M41" s="16">
-        <v>5048064.15</v>
+        <v>4737145.32</v>
       </c>
       <c r="N41" s="16">
-        <v>14944192.45</v>
+        <v>14011435.96</v>
       </c>
       <c r="O41" s="16">
-        <v>453624036.94</v>
+        <v>426308296.54</v>
       </c>
       <c r="P41" s="16">
-        <v>333518027.71</v>
+        <v>313031222.4</v>
       </c>
     </row>
     <row r="42" spans="2:16">
       <c r="B42" s="22" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C42" s="23">
         <v>31</v>
@@ -12339,19 +12322,19 @@
         <v>4422513</v>
       </c>
       <c r="E42" s="23">
-        <v>220981</v>
+        <v>202566</v>
       </c>
       <c r="F42" s="23">
         <v>125378</v>
       </c>
       <c r="G42" s="23">
-        <v>134273</v>
+        <v>123084</v>
       </c>
       <c r="H42" s="23">
-        <v>480632</v>
+        <v>451028</v>
       </c>
       <c r="I42" s="24">
-        <v>0.1087</v>
+        <v>0.102</v>
       </c>
       <c r="J42" s="24">
         <v>0.75</v>
@@ -12360,24 +12343,24 @@
         <v>41.82</v>
       </c>
       <c r="L42" s="25">
-        <v>20097867.4</v>
+        <v>18859961.33</v>
       </c>
       <c r="M42" s="25">
-        <v>5024466.85</v>
+        <v>4714990.33</v>
       </c>
       <c r="N42" s="25">
-        <v>14873400.55</v>
+        <v>13944971</v>
       </c>
       <c r="O42" s="25">
-        <v>473721904.34</v>
+        <v>445168257.87</v>
       </c>
       <c r="P42" s="25">
-        <v>348391428.25</v>
+        <v>326976193.4</v>
       </c>
     </row>
     <row r="43" spans="2:16">
       <c r="B43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C43" s="21">
         <v>32</v>
@@ -12386,19 +12369,19 @@
         <v>4429884</v>
       </c>
       <c r="E43" s="21">
-        <v>221390</v>
+        <v>202941</v>
       </c>
       <c r="F43" s="21">
         <v>125587</v>
       </c>
       <c r="G43" s="21">
-        <v>134522</v>
+        <v>123312</v>
       </c>
       <c r="H43" s="21">
-        <v>481499</v>
+        <v>451840</v>
       </c>
       <c r="I43" s="14">
-        <v>0.1087</v>
+        <v>0.102</v>
       </c>
       <c r="J43" s="14">
         <v>0.75</v>
@@ -12407,24 +12390,24 @@
         <v>41.54</v>
       </c>
       <c r="L43" s="16">
-        <v>20001949.96</v>
+        <v>18769885.44</v>
       </c>
       <c r="M43" s="16">
-        <v>5000487.49</v>
+        <v>4692471.36</v>
       </c>
       <c r="N43" s="16">
-        <v>14801462.47</v>
+        <v>13877414.08</v>
       </c>
       <c r="O43" s="16">
-        <v>493723854.3</v>
+        <v>463938143.31</v>
       </c>
       <c r="P43" s="16">
-        <v>363192890.72</v>
+        <v>340853607.48</v>
       </c>
     </row>
     <row r="44" spans="2:16">
       <c r="B44" s="22" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C44" s="23">
         <v>33</v>
@@ -12433,19 +12416,19 @@
         <v>4437267</v>
       </c>
       <c r="E44" s="23">
-        <v>221788</v>
+        <v>203306</v>
       </c>
       <c r="F44" s="23">
         <v>125796</v>
       </c>
       <c r="G44" s="23">
-        <v>134763</v>
+        <v>123533</v>
       </c>
       <c r="H44" s="23">
-        <v>482347</v>
+        <v>452635</v>
       </c>
       <c r="I44" s="24">
-        <v>0.1087</v>
+        <v>0.102</v>
       </c>
       <c r="J44" s="24">
         <v>0.75</v>
@@ -12454,24 +12437,24 @@
         <v>41.27</v>
       </c>
       <c r="L44" s="25">
-        <v>19904772.48</v>
+        <v>18678662.23</v>
       </c>
       <c r="M44" s="25">
-        <v>4976193.12</v>
+        <v>4669665.56</v>
       </c>
       <c r="N44" s="25">
-        <v>14728579.36</v>
+        <v>13808996.67</v>
       </c>
       <c r="O44" s="25">
-        <v>513628626.77</v>
+        <v>482616805.54</v>
       </c>
       <c r="P44" s="25">
-        <v>377921470.08</v>
+        <v>354662604.16</v>
       </c>
     </row>
     <row r="45" spans="2:16">
       <c r="B45" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C45" s="21">
         <v>34</v>
@@ -12480,19 +12463,19 @@
         <v>4444662</v>
       </c>
       <c r="E45" s="21">
-        <v>222179</v>
+        <v>203664</v>
       </c>
       <c r="F45" s="21">
         <v>126006</v>
       </c>
       <c r="G45" s="21">
-        <v>135001</v>
+        <v>123751</v>
       </c>
       <c r="H45" s="21">
-        <v>483186</v>
+        <v>453421</v>
       </c>
       <c r="I45" s="14">
-        <v>0.1087</v>
+        <v>0.102</v>
       </c>
       <c r="J45" s="14">
         <v>0.75</v>
@@ -12501,24 +12484,24 @@
         <v>40.99</v>
       </c>
       <c r="L45" s="16">
-        <v>19806760.51</v>
+        <v>18586633.63</v>
       </c>
       <c r="M45" s="16">
-        <v>4951690.13</v>
+        <v>4646658.41</v>
       </c>
       <c r="N45" s="16">
-        <v>14655070.38</v>
+        <v>13739975.22</v>
       </c>
       <c r="O45" s="16">
-        <v>533435387.28</v>
+        <v>501203439.17</v>
       </c>
       <c r="P45" s="16">
-        <v>392576540.46</v>
+        <v>368402579.38</v>
       </c>
     </row>
     <row r="46" spans="2:16">
       <c r="B46" s="22" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C46" s="23">
         <v>35</v>
@@ -12527,19 +12510,19 @@
         <v>4452070</v>
       </c>
       <c r="E46" s="23">
-        <v>222565</v>
+        <v>204018</v>
       </c>
       <c r="F46" s="23">
         <v>126216</v>
       </c>
       <c r="G46" s="23">
-        <v>135236</v>
+        <v>123966</v>
       </c>
       <c r="H46" s="23">
-        <v>484017</v>
+        <v>454200</v>
       </c>
       <c r="I46" s="24">
-        <v>0.1087</v>
+        <v>0.102</v>
       </c>
       <c r="J46" s="24">
         <v>0.75</v>
@@ -12548,24 +12531,24 @@
         <v>40.72</v>
       </c>
       <c r="L46" s="25">
-        <v>19707962.2</v>
+        <v>18493888.5</v>
       </c>
       <c r="M46" s="25">
-        <v>4926990.55</v>
+        <v>4623472.13</v>
       </c>
       <c r="N46" s="25">
-        <v>14580971.65</v>
+        <v>13670416.38</v>
       </c>
       <c r="O46" s="25">
-        <v>553143349.48</v>
+        <v>519697327.67</v>
       </c>
       <c r="P46" s="25">
-        <v>407157512.11</v>
+        <v>382072995.75</v>
       </c>
     </row>
     <row r="47" spans="2:16">
       <c r="B47" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C47" s="21">
         <v>36</v>
@@ -12574,19 +12557,19 @@
         <v>4459490</v>
       </c>
       <c r="E47" s="21">
-        <v>222947</v>
+        <v>204368</v>
       </c>
       <c r="F47" s="21">
         <v>126426</v>
       </c>
       <c r="G47" s="21">
-        <v>135468</v>
+        <v>124179</v>
       </c>
       <c r="H47" s="21">
-        <v>484841</v>
+        <v>454973</v>
       </c>
       <c r="I47" s="14">
-        <v>0.1087</v>
+        <v>0.102</v>
       </c>
       <c r="J47" s="14">
         <v>0.75</v>
@@ -12595,24 +12578,24 @@
         <v>40.44</v>
       </c>
       <c r="L47" s="16">
-        <v>19608424.56</v>
+        <v>18400473.04</v>
       </c>
       <c r="M47" s="16">
-        <v>4902106.14</v>
+        <v>4600118.26</v>
       </c>
       <c r="N47" s="16">
-        <v>14506318.42</v>
+        <v>13600354.78</v>
       </c>
       <c r="O47" s="16">
-        <v>572751774.05</v>
+        <v>538097800.71</v>
       </c>
       <c r="P47" s="16">
-        <v>421663830.53</v>
+        <v>395673350.53</v>
       </c>
     </row>
     <row r="48" spans="2:16">
       <c r="B48" s="22" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C48" s="23">
         <v>37</v>
@@ -12621,19 +12604,19 @@
         <v>4466923</v>
       </c>
       <c r="E48" s="23">
-        <v>223326</v>
+        <v>204715</v>
       </c>
       <c r="F48" s="23">
         <v>126637</v>
       </c>
       <c r="G48" s="23">
-        <v>135698</v>
+        <v>124389</v>
       </c>
       <c r="H48" s="23">
-        <v>485661</v>
+        <v>455741</v>
       </c>
       <c r="I48" s="24">
-        <v>0.1087</v>
+        <v>0.102</v>
       </c>
       <c r="J48" s="24">
         <v>0.75</v>
@@ -12642,24 +12625,24 @@
         <v>40.17</v>
       </c>
       <c r="L48" s="25">
-        <v>19508273.88</v>
+        <v>18306432.36</v>
       </c>
       <c r="M48" s="25">
-        <v>4877068.47</v>
+        <v>4576608.09</v>
       </c>
       <c r="N48" s="25">
-        <v>14431205.41</v>
+        <v>13529824.27</v>
       </c>
       <c r="O48" s="25">
-        <v>592260047.92</v>
+        <v>556404233.0700001</v>
       </c>
       <c r="P48" s="25">
-        <v>436095035.94</v>
+        <v>409203174.8</v>
       </c>
     </row>
     <row r="49" spans="2:16">
       <c r="B49" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C49" s="21">
         <v>38</v>
@@ -12668,19 +12651,19 @@
         <v>4474368</v>
       </c>
       <c r="E49" s="21">
-        <v>223704</v>
+        <v>205062</v>
       </c>
       <c r="F49" s="21">
         <v>126848</v>
       </c>
       <c r="G49" s="21">
-        <v>135928</v>
+        <v>124600</v>
       </c>
       <c r="H49" s="21">
-        <v>486480</v>
+        <v>456510</v>
       </c>
       <c r="I49" s="14">
-        <v>0.1087</v>
+        <v>0.102</v>
       </c>
       <c r="J49" s="14">
         <v>0.75</v>
@@ -12689,24 +12672,24 @@
         <v>39.89</v>
       </c>
       <c r="L49" s="16">
-        <v>19407633.12</v>
+        <v>18212009.94</v>
       </c>
       <c r="M49" s="16">
-        <v>4851908.28</v>
+        <v>4553002.49</v>
       </c>
       <c r="N49" s="16">
-        <v>14355724.84</v>
+        <v>13459007.46</v>
       </c>
       <c r="O49" s="16">
-        <v>611667681.04</v>
+        <v>574616243.01</v>
       </c>
       <c r="P49" s="16">
-        <v>450450760.78</v>
+        <v>422662182.26</v>
       </c>
     </row>
     <row r="50" spans="2:16">
       <c r="B50" s="22" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C50" s="23">
         <v>39</v>
@@ -12715,19 +12698,19 @@
         <v>4481825</v>
       </c>
       <c r="E50" s="23">
-        <v>224081</v>
+        <v>205407</v>
       </c>
       <c r="F50" s="23">
         <v>127059</v>
       </c>
       <c r="G50" s="23">
-        <v>136157</v>
+        <v>124810</v>
       </c>
       <c r="H50" s="23">
-        <v>487297</v>
+        <v>457276</v>
       </c>
       <c r="I50" s="24">
-        <v>0.1087</v>
+        <v>0.102</v>
       </c>
       <c r="J50" s="24">
         <v>0.75</v>
@@ -12736,24 +12719,24 @@
         <v>39.62</v>
       </c>
       <c r="L50" s="25">
-        <v>19306463.49</v>
+        <v>18117046.48</v>
       </c>
       <c r="M50" s="25">
-        <v>4826615.87</v>
+        <v>4529261.62</v>
       </c>
       <c r="N50" s="25">
-        <v>14279847.62</v>
+        <v>13387784.86</v>
       </c>
       <c r="O50" s="25">
-        <v>630974144.54</v>
+        <v>592733289.49</v>
       </c>
       <c r="P50" s="25">
-        <v>464730608.4</v>
+        <v>436049967.12</v>
       </c>
     </row>
     <row r="51" spans="2:16">
       <c r="B51" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C51" s="21">
         <v>40</v>
@@ -12762,19 +12745,19 @@
         <v>4489295</v>
       </c>
       <c r="E51" s="21">
-        <v>224457</v>
+        <v>205752</v>
       </c>
       <c r="F51" s="21">
         <v>127271</v>
       </c>
       <c r="G51" s="21">
-        <v>136385</v>
+        <v>125020</v>
       </c>
       <c r="H51" s="21">
-        <v>488113</v>
+        <v>458043</v>
       </c>
       <c r="I51" s="14">
-        <v>0.1087</v>
+        <v>0.102</v>
       </c>
       <c r="J51" s="14">
         <v>0.75</v>
@@ -12783,24 +12766,24 @@
         <v>39.35</v>
       </c>
       <c r="L51" s="16">
-        <v>19204805.99</v>
+        <v>18021701.84</v>
       </c>
       <c r="M51" s="16">
-        <v>4801201.5</v>
+        <v>4505425.46</v>
       </c>
       <c r="N51" s="16">
-        <v>14203604.49</v>
+        <v>13316276.38</v>
       </c>
       <c r="O51" s="16">
-        <v>650178950.52</v>
+        <v>610754991.33</v>
       </c>
       <c r="P51" s="16">
-        <v>478934212.89</v>
+        <v>449366243.5</v>
       </c>
     </row>
     <row r="52" spans="2:16">
       <c r="B52" s="22" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C52" s="23">
         <v>41</v>
@@ -12809,19 +12792,19 @@
         <v>4496777</v>
       </c>
       <c r="E52" s="23">
-        <v>224833</v>
+        <v>206097</v>
       </c>
       <c r="F52" s="23">
         <v>127483</v>
       </c>
       <c r="G52" s="23">
-        <v>136614</v>
+        <v>125229</v>
       </c>
       <c r="H52" s="23">
-        <v>488930</v>
+        <v>458809</v>
       </c>
       <c r="I52" s="24">
-        <v>0.1087</v>
+        <v>0.102</v>
       </c>
       <c r="J52" s="24">
         <v>0.75</v>
@@ -12830,24 +12813,24 @@
         <v>39.07</v>
       </c>
       <c r="L52" s="25">
-        <v>19102739.57</v>
+        <v>17925897.03</v>
       </c>
       <c r="M52" s="25">
-        <v>4775684.89</v>
+        <v>4481474.26</v>
       </c>
       <c r="N52" s="25">
-        <v>14127054.67</v>
+        <v>13244422.78</v>
       </c>
       <c r="O52" s="25">
-        <v>669281690.09</v>
+        <v>628680888.36</v>
       </c>
       <c r="P52" s="25">
-        <v>493061267.56</v>
+        <v>462610666.27</v>
       </c>
     </row>
     <row r="53" spans="2:16">
       <c r="B53" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C53" s="21">
         <v>42</v>
@@ -12856,19 +12839,19 @@
         <v>4504271</v>
       </c>
       <c r="E53" s="21">
-        <v>225209</v>
+        <v>206442</v>
       </c>
       <c r="F53" s="21">
         <v>127696</v>
       </c>
       <c r="G53" s="21">
-        <v>136842</v>
+        <v>125439</v>
       </c>
       <c r="H53" s="21">
-        <v>489747</v>
+        <v>459577</v>
       </c>
       <c r="I53" s="14">
-        <v>0.1087</v>
+        <v>0.102</v>
       </c>
       <c r="J53" s="14">
         <v>0.75</v>
@@ -12877,24 +12860,24 @@
         <v>38.8</v>
       </c>
       <c r="L53" s="16">
-        <v>19000224.61</v>
+        <v>17829749.29</v>
       </c>
       <c r="M53" s="16">
-        <v>4750056.15</v>
+        <v>4457437.32</v>
       </c>
       <c r="N53" s="16">
-        <v>14050168.46</v>
+        <v>13172311.97</v>
       </c>
       <c r="O53" s="16">
-        <v>688281914.7</v>
+        <v>646510637.65</v>
       </c>
       <c r="P53" s="16">
-        <v>507111436.02</v>
+        <v>475782978.24</v>
       </c>
     </row>
     <row r="54" spans="2:16">
       <c r="B54" s="22" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C54" s="23">
         <v>43</v>
@@ -12903,19 +12886,19 @@
         <v>4511779</v>
       </c>
       <c r="E54" s="23">
-        <v>225586</v>
+        <v>206787</v>
       </c>
       <c r="F54" s="23">
         <v>127908</v>
       </c>
       <c r="G54" s="23">
-        <v>137071</v>
+        <v>125648</v>
       </c>
       <c r="H54" s="23">
-        <v>490565</v>
+        <v>460343</v>
       </c>
       <c r="I54" s="24">
-        <v>0.1087</v>
+        <v>0.102</v>
       </c>
       <c r="J54" s="24">
         <v>0.75</v>
@@ -12924,24 +12907,24 @@
         <v>38.52</v>
       </c>
       <c r="L54" s="25">
-        <v>18897299.65</v>
+        <v>17733102.87</v>
       </c>
       <c r="M54" s="25">
-        <v>4724324.91</v>
+        <v>4433275.72</v>
       </c>
       <c r="N54" s="25">
-        <v>13972974.74</v>
+        <v>13099827.16</v>
       </c>
       <c r="O54" s="25">
-        <v>707179214.34</v>
+        <v>664243740.53</v>
       </c>
       <c r="P54" s="25">
-        <v>521084410.76</v>
+        <v>488882805.4</v>
       </c>
     </row>
     <row r="55" spans="2:16">
       <c r="B55" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C55" s="21">
         <v>44</v>
@@ -12950,19 +12933,19 @@
         <v>4519298</v>
       </c>
       <c r="E55" s="21">
-        <v>225962</v>
+        <v>207132</v>
       </c>
       <c r="F55" s="21">
         <v>128122</v>
       </c>
       <c r="G55" s="21">
-        <v>137300</v>
+        <v>125858</v>
       </c>
       <c r="H55" s="21">
-        <v>491384</v>
+        <v>461112</v>
       </c>
       <c r="I55" s="14">
-        <v>0.1087</v>
+        <v>0.102</v>
       </c>
       <c r="J55" s="14">
         <v>0.75</v>
@@ -12971,24 +12954,24 @@
         <v>38.25</v>
       </c>
       <c r="L55" s="16">
-        <v>18793963.85</v>
+        <v>17636150.66</v>
       </c>
       <c r="M55" s="16">
-        <v>4698490.96</v>
+        <v>4409037.67</v>
       </c>
       <c r="N55" s="16">
-        <v>13895472.89</v>
+        <v>13027113</v>
       </c>
       <c r="O55" s="16">
-        <v>725973178.1900001</v>
+        <v>681879891.1900001</v>
       </c>
       <c r="P55" s="16">
-        <v>534979883.64</v>
+        <v>501909918.39</v>
       </c>
     </row>
     <row r="56" spans="2:16">
       <c r="B56" s="22" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C56" s="23">
         <v>45</v>
@@ -12997,19 +12980,19 @@
         <v>4526830</v>
       </c>
       <c r="E56" s="23">
-        <v>226340</v>
+        <v>207478</v>
       </c>
       <c r="F56" s="23">
         <v>128335</v>
       </c>
       <c r="G56" s="23">
-        <v>137529</v>
+        <v>126068</v>
       </c>
       <c r="H56" s="23">
-        <v>492204</v>
+        <v>461881</v>
       </c>
       <c r="I56" s="24">
-        <v>0.1087</v>
+        <v>0.102</v>
       </c>
       <c r="J56" s="24">
         <v>0.75</v>
@@ -13018,24 +13001,24 @@
         <v>37.97</v>
       </c>
       <c r="L56" s="25">
-        <v>18690216.39</v>
+        <v>17538776.27</v>
       </c>
       <c r="M56" s="25">
-        <v>4672554.1</v>
+        <v>4384694.07</v>
       </c>
       <c r="N56" s="25">
-        <v>13817662.29</v>
+        <v>12954082.2</v>
       </c>
       <c r="O56" s="25">
-        <v>744663394.58</v>
+        <v>699418667.46</v>
       </c>
       <c r="P56" s="25">
-        <v>548797545.9400001</v>
+        <v>514864000.6</v>
       </c>
     </row>
     <row r="57" spans="2:16">
       <c r="B57" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C57" s="21">
         <v>46</v>
@@ -13044,19 +13027,19 @@
         <v>4534375</v>
       </c>
       <c r="E57" s="21">
-        <v>226717</v>
+        <v>207824</v>
       </c>
       <c r="F57" s="21">
         <v>128549</v>
       </c>
       <c r="G57" s="21">
-        <v>137758</v>
+        <v>126279</v>
       </c>
       <c r="H57" s="21">
-        <v>493024</v>
+        <v>462652</v>
       </c>
       <c r="I57" s="14">
-        <v>0.1087</v>
+        <v>0.102</v>
       </c>
       <c r="J57" s="14">
         <v>0.75</v>
@@ -13065,24 +13048,24 @@
         <v>37.7</v>
       </c>
       <c r="L57" s="16">
-        <v>18586018.75</v>
+        <v>17441055.1</v>
       </c>
       <c r="M57" s="16">
-        <v>4646504.69</v>
+        <v>4360263.77</v>
       </c>
       <c r="N57" s="16">
-        <v>13739514.06</v>
+        <v>12880791.32</v>
       </c>
       <c r="O57" s="16">
-        <v>763249413.33</v>
+        <v>716859722.5599999</v>
       </c>
       <c r="P57" s="16">
-        <v>562537060</v>
+        <v>527744791.92</v>
       </c>
     </row>
     <row r="58" spans="2:16">
       <c r="B58" s="22" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C58" s="23">
         <v>47</v>
@@ -13091,19 +13074,19 @@
         <v>4541932</v>
       </c>
       <c r="E58" s="23">
-        <v>227095</v>
+        <v>208171</v>
       </c>
       <c r="F58" s="23">
         <v>128763</v>
       </c>
       <c r="G58" s="23">
-        <v>137988</v>
+        <v>126489</v>
       </c>
       <c r="H58" s="23">
-        <v>493846</v>
+        <v>463423</v>
       </c>
       <c r="I58" s="24">
-        <v>0.1087</v>
+        <v>0.102</v>
       </c>
       <c r="J58" s="24">
         <v>0.75</v>
@@ -13112,24 +13095,24 @@
         <v>37.42</v>
       </c>
       <c r="L58" s="25">
-        <v>18481445.78</v>
+        <v>17342910.64</v>
       </c>
       <c r="M58" s="25">
-        <v>4620361.45</v>
+        <v>4335727.66</v>
       </c>
       <c r="N58" s="25">
-        <v>13661084.34</v>
+        <v>12807182.98</v>
       </c>
       <c r="O58" s="25">
-        <v>781730859.12</v>
+        <v>734202633.2</v>
       </c>
       <c r="P58" s="25">
-        <v>576198144.34</v>
+        <v>540551974.9</v>
       </c>
     </row>
     <row r="59" spans="2:16">
       <c r="B59" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C59" s="21">
         <v>48</v>
@@ -13138,19 +13121,19 @@
         <v>4549502</v>
       </c>
       <c r="E59" s="21">
-        <v>227474</v>
+        <v>208518</v>
       </c>
       <c r="F59" s="21">
         <v>128978</v>
       </c>
       <c r="G59" s="21">
-        <v>138218</v>
+        <v>126700</v>
       </c>
       <c r="H59" s="21">
-        <v>494670</v>
+        <v>464196</v>
       </c>
       <c r="I59" s="14">
-        <v>0.1087</v>
+        <v>0.102</v>
       </c>
       <c r="J59" s="14">
         <v>0.75</v>
@@ -13159,24 +13142,24 @@
         <v>37.15</v>
       </c>
       <c r="L59" s="16">
-        <v>18376495.83</v>
+        <v>17244417.2</v>
       </c>
       <c r="M59" s="16">
-        <v>4594123.96</v>
+        <v>4311104.3</v>
       </c>
       <c r="N59" s="16">
-        <v>13582371.87</v>
+        <v>12733312.9</v>
       </c>
       <c r="O59" s="16">
-        <v>800107354.95</v>
+        <v>751447050.41</v>
       </c>
       <c r="P59" s="16">
-        <v>589780516.21</v>
+        <v>553285287.8</v>
       </c>
     </row>
     <row r="60" spans="2:16">
       <c r="B60" s="22" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C60" s="23">
         <v>49</v>
@@ -13185,19 +13168,19 @@
         <v>4557085</v>
       </c>
       <c r="E60" s="23">
-        <v>227853</v>
+        <v>208866</v>
       </c>
       <c r="F60" s="23">
         <v>129193</v>
       </c>
       <c r="G60" s="23">
-        <v>138449</v>
+        <v>126912</v>
       </c>
       <c r="H60" s="23">
-        <v>495495</v>
+        <v>464971</v>
       </c>
       <c r="I60" s="24">
-        <v>0.1087</v>
+        <v>0.102</v>
       </c>
       <c r="J60" s="24">
         <v>0.75</v>
@@ -13206,24 +13189,24 @@
         <v>36.87</v>
       </c>
       <c r="L60" s="25">
-        <v>18271130.38</v>
+        <v>17145573.14</v>
       </c>
       <c r="M60" s="25">
-        <v>4567782.59</v>
+        <v>4286393.28</v>
       </c>
       <c r="N60" s="25">
-        <v>13503347.78</v>
+        <v>12659179.85</v>
       </c>
       <c r="O60" s="25">
-        <v>818378485.3200001</v>
+        <v>768592623.54</v>
       </c>
       <c r="P60" s="25">
-        <v>603283863.99</v>
+        <v>565944467.66</v>
       </c>
     </row>
     <row r="61" spans="2:16">
       <c r="B61" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C61" s="21">
         <v>50</v>
@@ -13232,19 +13215,19 @@
         <v>4564680</v>
       </c>
       <c r="E61" s="21">
-        <v>228233</v>
+        <v>209214</v>
       </c>
       <c r="F61" s="21">
         <v>129408</v>
       </c>
       <c r="G61" s="21">
-        <v>138680</v>
+        <v>127123</v>
       </c>
       <c r="H61" s="21">
-        <v>496321</v>
+        <v>465745</v>
       </c>
       <c r="I61" s="14">
-        <v>0.1087</v>
+        <v>0.102</v>
       </c>
       <c r="J61" s="14">
         <v>0.75</v>
@@ -13253,24 +13236,24 @@
         <v>36.6</v>
       </c>
       <c r="L61" s="16">
-        <v>18165348.6</v>
+        <v>17046267</v>
       </c>
       <c r="M61" s="16">
-        <v>4541337.15</v>
+        <v>4261566.75</v>
       </c>
       <c r="N61" s="16">
-        <v>13424011.45</v>
+        <v>12584700.25</v>
       </c>
       <c r="O61" s="16">
-        <v>836543833.92</v>
+        <v>785638890.54</v>
       </c>
       <c r="P61" s="16">
-        <v>616707875.4400001</v>
+        <v>578529167.91</v>
       </c>
     </row>
     <row r="62" spans="2:16">
       <c r="B62" s="22" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C62" s="23">
         <v>51</v>
@@ -13279,19 +13262,19 @@
         <v>4572288</v>
       </c>
       <c r="E62" s="23">
-        <v>228614</v>
+        <v>209563</v>
       </c>
       <c r="F62" s="23">
         <v>129624</v>
       </c>
       <c r="G62" s="23">
-        <v>138911</v>
+        <v>127335</v>
       </c>
       <c r="H62" s="23">
-        <v>497149</v>
+        <v>466522</v>
       </c>
       <c r="I62" s="24">
-        <v>0.1087</v>
+        <v>0.102</v>
       </c>
       <c r="J62" s="24">
         <v>0.75</v>
@@ -13300,24 +13283,24 @@
         <v>36.6</v>
       </c>
       <c r="L62" s="25">
-        <v>18195653.4</v>
+        <v>17074705.2</v>
       </c>
       <c r="M62" s="25">
-        <v>4548913.35</v>
+        <v>4268676.3</v>
       </c>
       <c r="N62" s="25">
-        <v>13446740.05</v>
+        <v>12606028.9</v>
       </c>
       <c r="O62" s="25">
-        <v>854739487.3200001</v>
+        <v>802713595.74</v>
       </c>
       <c r="P62" s="25">
-        <v>630154615.49</v>
+        <v>591135196.8099999</v>
       </c>
     </row>
     <row r="63" spans="2:16">
       <c r="B63" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C63" s="21">
         <v>52</v>
@@ -13326,19 +13309,19 @@
         <v>4579908</v>
       </c>
       <c r="E63" s="21">
-        <v>228995</v>
+        <v>209912</v>
       </c>
       <c r="F63" s="21">
         <v>129840</v>
       </c>
       <c r="G63" s="21">
-        <v>139143</v>
+        <v>127547</v>
       </c>
       <c r="H63" s="21">
-        <v>497978</v>
+        <v>467299</v>
       </c>
       <c r="I63" s="14">
-        <v>0.1087</v>
+        <v>0.102</v>
       </c>
       <c r="J63" s="14">
         <v>0.75</v>
@@ -13347,24 +13330,24 @@
         <v>36.6</v>
       </c>
       <c r="L63" s="16">
-        <v>18225994.8</v>
+        <v>17103143.4</v>
       </c>
       <c r="M63" s="16">
-        <v>4556498.7</v>
+        <v>4275785.85</v>
       </c>
       <c r="N63" s="16">
-        <v>13469496.1</v>
+        <v>12627357.55</v>
       </c>
       <c r="O63" s="16">
-        <v>872965482.12</v>
+        <v>819816739.14</v>
       </c>
       <c r="P63" s="16">
-        <v>643624111.59</v>
+        <v>603762554.36</v>
       </c>
     </row>
     <row r="64" spans="2:16">
       <c r="B64" s="22" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C64" s="23">
         <v>53</v>
@@ -13373,19 +13356,19 @@
         <v>4587541</v>
       </c>
       <c r="E64" s="23">
-        <v>229376</v>
+        <v>210262</v>
       </c>
       <c r="F64" s="23">
         <v>130056</v>
       </c>
       <c r="G64" s="23">
-        <v>139374</v>
+        <v>127760</v>
       </c>
       <c r="H64" s="23">
-        <v>498806</v>
+        <v>468078</v>
       </c>
       <c r="I64" s="24">
-        <v>0.1087</v>
+        <v>0.102</v>
       </c>
       <c r="J64" s="24">
         <v>0.75</v>
@@ -13394,24 +13377,24 @@
         <v>36.6</v>
       </c>
       <c r="L64" s="25">
-        <v>18256299.6</v>
+        <v>17131654.8</v>
       </c>
       <c r="M64" s="25">
-        <v>4564074.9</v>
+        <v>4282913.7</v>
       </c>
       <c r="N64" s="25">
-        <v>13492224.7</v>
+        <v>12648741.1</v>
       </c>
       <c r="O64" s="25">
-        <v>891221781.72</v>
+        <v>836948393.9400001</v>
       </c>
       <c r="P64" s="25">
-        <v>657116336.29</v>
+        <v>616411295.46</v>
       </c>
     </row>
     <row r="65" spans="2:16">
       <c r="B65" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C65" s="21">
         <v>54</v>
@@ -13420,19 +13403,19 @@
         <v>4595187</v>
       </c>
       <c r="E65" s="21">
-        <v>229759</v>
+        <v>210612</v>
       </c>
       <c r="F65" s="21">
         <v>130273</v>
       </c>
       <c r="G65" s="21">
-        <v>139607</v>
+        <v>127973</v>
       </c>
       <c r="H65" s="21">
-        <v>499639</v>
+        <v>468858</v>
       </c>
       <c r="I65" s="14">
-        <v>0.1087</v>
+        <v>0.102</v>
       </c>
       <c r="J65" s="14">
         <v>0.75</v>
@@ -13441,24 +13424,24 @@
         <v>36.6</v>
       </c>
       <c r="L65" s="16">
-        <v>18286787.4</v>
+        <v>17160202.8</v>
       </c>
       <c r="M65" s="16">
-        <v>4571696.85</v>
+        <v>4290050.7</v>
       </c>
       <c r="N65" s="16">
-        <v>13515090.55</v>
+        <v>12670152.1</v>
       </c>
       <c r="O65" s="16">
-        <v>909508569.12</v>
+        <v>854108596.74</v>
       </c>
       <c r="P65" s="16">
-        <v>670631426.84</v>
+        <v>629081447.5599999</v>
       </c>
     </row>
     <row r="66" spans="2:16">
       <c r="B66" s="22" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C66" s="23">
         <v>55</v>
@@ -13467,19 +13450,19 @@
         <v>4602846</v>
       </c>
       <c r="E66" s="23">
-        <v>230142</v>
+        <v>210963</v>
       </c>
       <c r="F66" s="23">
         <v>130490</v>
       </c>
       <c r="G66" s="23">
-        <v>139840</v>
+        <v>128186</v>
       </c>
       <c r="H66" s="23">
-        <v>500472</v>
+        <v>469639</v>
       </c>
       <c r="I66" s="24">
-        <v>0.1087</v>
+        <v>0.102</v>
       </c>
       <c r="J66" s="24">
         <v>0.75</v>
@@ -13488,24 +13471,24 @@
         <v>36.6</v>
       </c>
       <c r="L66" s="25">
-        <v>18317275.2</v>
+        <v>17188787.4</v>
       </c>
       <c r="M66" s="25">
-        <v>4579318.8</v>
+        <v>4297196.85</v>
       </c>
       <c r="N66" s="25">
-        <v>13537956.4</v>
+        <v>12691590.55</v>
       </c>
       <c r="O66" s="25">
-        <v>927825844.3200001</v>
+        <v>871297384.14</v>
       </c>
       <c r="P66" s="25">
-        <v>684169383.24</v>
+        <v>641773038.11</v>
       </c>
     </row>
     <row r="67" spans="2:16">
       <c r="B67" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C67" s="21">
         <v>56</v>
@@ -13514,19 +13497,19 @@
         <v>4610517</v>
       </c>
       <c r="E67" s="21">
-        <v>230525</v>
+        <v>211315</v>
       </c>
       <c r="F67" s="21">
         <v>130708</v>
       </c>
       <c r="G67" s="21">
-        <v>140072</v>
+        <v>128400</v>
       </c>
       <c r="H67" s="21">
-        <v>501305</v>
+        <v>470423</v>
       </c>
       <c r="I67" s="14">
-        <v>0.1087</v>
+        <v>0.102</v>
       </c>
       <c r="J67" s="14">
         <v>0.75</v>
@@ -13535,24 +13518,24 @@
         <v>36.6</v>
       </c>
       <c r="L67" s="16">
-        <v>18347763</v>
+        <v>17217481.8</v>
       </c>
       <c r="M67" s="16">
-        <v>4586940.75</v>
+        <v>4304370.45</v>
       </c>
       <c r="N67" s="16">
-        <v>13560822.25</v>
+        <v>12713111.35</v>
       </c>
       <c r="O67" s="16">
-        <v>946173607.3200001</v>
+        <v>888514865.9400001</v>
       </c>
       <c r="P67" s="16">
-        <v>697730205.49</v>
+        <v>654486149.46</v>
       </c>
     </row>
     <row r="68" spans="2:16">
       <c r="B68" s="22" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C68" s="23">
         <v>57</v>
@@ -13561,19 +13544,19 @@
         <v>4618201</v>
       </c>
       <c r="E68" s="23">
-        <v>230910</v>
+        <v>211667</v>
       </c>
       <c r="F68" s="23">
         <v>130926</v>
       </c>
       <c r="G68" s="23">
-        <v>140306</v>
+        <v>128614</v>
       </c>
       <c r="H68" s="23">
-        <v>502142</v>
+        <v>471207</v>
       </c>
       <c r="I68" s="24">
-        <v>0.1087</v>
+        <v>0.102</v>
       </c>
       <c r="J68" s="24">
         <v>0.75</v>
@@ -13582,24 +13565,24 @@
         <v>36.6</v>
       </c>
       <c r="L68" s="25">
-        <v>18378397.2</v>
+        <v>17246176.2</v>
       </c>
       <c r="M68" s="25">
-        <v>4594599.3</v>
+        <v>4311544.05</v>
       </c>
       <c r="N68" s="25">
-        <v>13583797.9</v>
+        <v>12734632.15</v>
       </c>
       <c r="O68" s="25">
-        <v>964552004.52</v>
+        <v>905761042.14</v>
       </c>
       <c r="P68" s="25">
-        <v>711314003.39</v>
+        <v>667220781.61</v>
       </c>
     </row>
     <row r="69" spans="2:16">
       <c r="B69" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C69" s="21">
         <v>58</v>
@@ -13608,19 +13591,19 @@
         <v>4625898</v>
       </c>
       <c r="E69" s="21">
-        <v>231294</v>
+        <v>212020</v>
       </c>
       <c r="F69" s="21">
         <v>131144</v>
       </c>
       <c r="G69" s="21">
-        <v>140540</v>
+        <v>128828</v>
       </c>
       <c r="H69" s="21">
-        <v>502978</v>
+        <v>471992</v>
       </c>
       <c r="I69" s="14">
-        <v>0.1087</v>
+        <v>0.102</v>
       </c>
       <c r="J69" s="14">
         <v>0.75</v>
@@ -13629,24 +13612,24 @@
         <v>36.6</v>
       </c>
       <c r="L69" s="16">
-        <v>18408994.8</v>
+        <v>17274907.2</v>
       </c>
       <c r="M69" s="16">
-        <v>4602248.7</v>
+        <v>4318726.8</v>
       </c>
       <c r="N69" s="16">
-        <v>13606746.1</v>
+        <v>12756180.4</v>
       </c>
       <c r="O69" s="16">
-        <v>982960999.3200001</v>
+        <v>923035949.34</v>
       </c>
       <c r="P69" s="16">
-        <v>724920749.49</v>
+        <v>679976962.01</v>
       </c>
     </row>
     <row r="70" spans="2:16">
       <c r="B70" s="22" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C70" s="23">
         <v>59</v>
@@ -13655,19 +13638,19 @@
         <v>4633608</v>
       </c>
       <c r="E70" s="23">
-        <v>231680</v>
+        <v>212373</v>
       </c>
       <c r="F70" s="23">
         <v>131362</v>
       </c>
       <c r="G70" s="23">
-        <v>140774</v>
+        <v>129043</v>
       </c>
       <c r="H70" s="23">
-        <v>503816</v>
+        <v>472778</v>
       </c>
       <c r="I70" s="24">
-        <v>0.1087</v>
+        <v>0.102</v>
       </c>
       <c r="J70" s="24">
         <v>0.75</v>
@@ -13676,19 +13659,19 @@
         <v>36.6</v>
       </c>
       <c r="L70" s="25">
-        <v>18439665.6</v>
+        <v>17303674.8</v>
       </c>
       <c r="M70" s="25">
-        <v>4609916.4</v>
+        <v>4325918.7</v>
       </c>
       <c r="N70" s="25">
-        <v>13629749.2</v>
+        <v>12777756.1</v>
       </c>
       <c r="O70" s="25">
-        <v>1001400664.92</v>
+        <v>940339624.14</v>
       </c>
       <c r="P70" s="25">
-        <v>738550498.6900001</v>
+        <v>692754718.11</v>
       </c>
     </row>
   </sheetData>
@@ -13729,7 +13712,7 @@
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -13737,7 +13720,7 @@
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -13745,18 +13728,18 @@
     </row>
     <row r="5" spans="2:5">
       <c r="C5" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>125</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C6" s="16">
         <v>1360981052.8</v>
@@ -13770,7 +13753,7 @@
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C7" s="16">
         <v>5895163640.9</v>
@@ -13784,21 +13767,21 @@
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C8" s="14">
-        <v>-0.3014098760269223</v>
+        <v>-0.303047965742738</v>
       </c>
       <c r="D8" s="14">
-        <v>-0.4305582912191142</v>
+        <v>-0.4302067002390985</v>
       </c>
       <c r="E8" s="14">
-        <v>-0.5887158083917412</v>
+        <v>-0.5874584632703206</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C9" s="14">
         <v>0.2546</v>
@@ -13812,7 +13795,7 @@
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C10" s="14">
         <v>0.2049</v>
@@ -13826,7 +13809,7 @@
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -13834,97 +13817,97 @@
     </row>
     <row r="14" spans="2:5">
       <c r="C14" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>125</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C15" s="16">
         <v>61372817.22</v>
       </c>
       <c r="D15" s="16">
-        <v>71578652.58</v>
+        <v>67402845.31</v>
       </c>
       <c r="E15" s="16">
-        <v>87421766.28999999</v>
+        <v>60973300.41</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C16" s="16">
         <v>865879707.95</v>
       </c>
       <c r="D16" s="16">
-        <v>1001400664.95</v>
+        <v>940339624.1399999</v>
       </c>
       <c r="E16" s="16">
-        <v>1215507822.24</v>
+        <v>835702365.21</v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C17" s="16">
         <v>636909780.9200001</v>
       </c>
       <c r="D17" s="16">
-        <v>738550498.7</v>
+        <v>692754718.11</v>
       </c>
       <c r="E17" s="16">
-        <v>899130866.71</v>
+        <v>614276773.9200001</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C18" s="14">
         <v>0.0766</v>
       </c>
       <c r="D18" s="14">
-        <v>0.1087</v>
+        <v>0.102</v>
       </c>
       <c r="E18" s="14">
-        <v>0.1489</v>
+        <v>0.102</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C19" s="14">
         <v>0.3782981492422077</v>
       </c>
       <c r="D19" s="14">
-        <v>0.2674484872445094</v>
+        <v>0.2848367131681429</v>
       </c>
       <c r="E19" s="14">
-        <v>0.1957498117065662</v>
+        <v>0.2848367131681429</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C20" s="14">
         <v>0.2314901283588021</v>
       </c>
       <c r="D20" s="14">
-        <v>0.2727654337104907</v>
+        <v>0.2662908195218405</v>
       </c>
       <c r="E20" s="14">
-        <v>0.2994626403171443</v>
+        <v>0.2662908195218405</v>
       </c>
     </row>
   </sheetData>
@@ -13957,7 +13940,7 @@
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -13965,7 +13948,7 @@
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -13973,42 +13956,42 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>289</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>290</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>291</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="C6" s="31" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="C7" s="32" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="C8" s="33" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -14016,147 +13999,147 @@
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="E11" s="13" t="s">
         <v>301</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C12" s="30" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="C13" s="30" t="s">
-        <v>307</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>308</v>
-      </c>
       <c r="E13" s="30" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="C14" s="30" t="s">
-        <v>310</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>311</v>
-      </c>
       <c r="E14" s="30" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="C15" s="30" t="s">
-        <v>313</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>314</v>
-      </c>
       <c r="E15" s="30" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="C16" s="30" t="s">
-        <v>316</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>317</v>
-      </c>
       <c r="E16" s="30" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="C17" s="30" t="s">
-        <v>319</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>320</v>
-      </c>
       <c r="E17" s="30" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>320</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="C18" s="30" t="s">
-        <v>322</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>323</v>
-      </c>
       <c r="E18" s="30" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="C19" s="30" t="s">
-        <v>325</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>326</v>
-      </c>
       <c r="E19" s="30" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -14164,16 +14147,16 @@
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="2:5">
@@ -14181,158 +14164,158 @@
         <v>30</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="27" spans="2:5">
       <c r="B27" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="D27" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="C27" s="31" t="s">
-        <v>338</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>339</v>
-      </c>
       <c r="E27" s="31" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="D28" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="C28" s="31" t="s">
-        <v>341</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>342</v>
-      </c>
       <c r="E28" s="31" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29" spans="2:5">
       <c r="B29" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>342</v>
+      </c>
+      <c r="D29" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="C29" s="31" t="s">
-        <v>344</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>345</v>
-      </c>
       <c r="E29" s="31" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30" spans="2:5">
       <c r="B30" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31" spans="2:5">
       <c r="B31" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>347</v>
+      </c>
+      <c r="D31" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="C31" s="31" t="s">
-        <v>349</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>350</v>
-      </c>
       <c r="E31" s="31" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="32" spans="2:5">
       <c r="B32" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>350</v>
+      </c>
+      <c r="D32" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="C32" s="31" t="s">
-        <v>352</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>353</v>
-      </c>
       <c r="E32" s="31" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>353</v>
+      </c>
+      <c r="D33" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="C33" s="31" t="s">
-        <v>355</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>356</v>
-      </c>
       <c r="E33" s="31" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>356</v>
+      </c>
+      <c r="D34" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="C34" s="31" t="s">
-        <v>358</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>359</v>
-      </c>
       <c r="E34" s="31" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -14340,91 +14323,91 @@
     </row>
     <row r="37" spans="2:5">
       <c r="B37" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="D37" s="13" t="s">
         <v>361</v>
       </c>
-      <c r="C37" s="13" t="s">
-        <v>362</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>363</v>
-      </c>
       <c r="E37" s="13" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="40" customHeight="1">
       <c r="B38" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="D38" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="C38" s="32" t="s">
-        <v>365</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>366</v>
-      </c>
       <c r="E38" s="32" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="40" customHeight="1">
       <c r="B39" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="D39" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="C39" s="32" t="s">
-        <v>368</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>369</v>
-      </c>
       <c r="E39" s="32" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="40" customHeight="1">
       <c r="B40" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="D40" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="C40" s="32" t="s">
-        <v>371</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>372</v>
-      </c>
       <c r="E40" s="32" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="41" spans="2:5" ht="40" customHeight="1">
       <c r="B41" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="D41" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="C41" s="32" t="s">
-        <v>374</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>375</v>
-      </c>
       <c r="E41" s="32" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="42" spans="2:5" ht="40" customHeight="1">
       <c r="B42" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C42" s="32" t="s">
+        <v>375</v>
+      </c>
+      <c r="D42" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="C42" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>378</v>
-      </c>
       <c r="E42" s="32" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="44" spans="2:5">
       <c r="B44" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -14432,119 +14415,119 @@
     </row>
     <row r="45" spans="2:5">
       <c r="B45" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="D45" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="C45" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>382</v>
-      </c>
       <c r="E45" s="13" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="46" spans="2:5">
       <c r="B46" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C46" s="33" t="s">
+        <v>382</v>
+      </c>
+      <c r="D46" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="C46" s="33" t="s">
-        <v>384</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>385</v>
-      </c>
       <c r="E46" s="33" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="47" spans="2:5">
       <c r="B47" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C47" s="33" t="s">
+        <v>385</v>
+      </c>
+      <c r="D47" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="C47" s="33" t="s">
-        <v>387</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>388</v>
-      </c>
       <c r="E47" s="33" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48" spans="2:5">
       <c r="B48" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C48" s="33" t="s">
+        <v>388</v>
+      </c>
+      <c r="D48" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="C48" s="33" t="s">
-        <v>390</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>391</v>
-      </c>
       <c r="E48" s="33" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="49" spans="2:5">
       <c r="B49" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C49" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="D49" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="C49" s="33" t="s">
-        <v>393</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>394</v>
-      </c>
       <c r="E49" s="33" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="50" spans="2:5">
       <c r="B50" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C50" s="33" t="s">
+        <v>394</v>
+      </c>
+      <c r="D50" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="C50" s="33" t="s">
-        <v>396</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>397</v>
-      </c>
       <c r="E50" s="33" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="51" spans="2:5">
       <c r="B51" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C51" s="33" t="s">
+        <v>397</v>
+      </c>
+      <c r="D51" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="C51" s="33" t="s">
-        <v>399</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>400</v>
-      </c>
       <c r="E51" s="33" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="52" spans="2:5">
       <c r="B52" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="C52" s="33" t="s">
+        <v>400</v>
+      </c>
+      <c r="D52" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="C52" s="33" t="s">
-        <v>402</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>403</v>
-      </c>
       <c r="E52" s="33" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="55" spans="2:5">
       <c r="B55" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
